--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9124" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B37767A-8B87-4769-96E0-C80999F7516F}"/>
+  <xr:revisionPtr revIDLastSave="9188" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9D81B2-5C6E-46BD-969B-5D12790098BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2019" sheetId="29" r:id="rId10"/>
     <sheet name="2020" sheetId="30" r:id="rId11"/>
     <sheet name="2021" sheetId="31" r:id="rId12"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId14"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId15"/>
+    <sheet name="2022" sheetId="34" r:id="rId13"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
+    <sheet name="YTD Wins-Losses" sheetId="35" r:id="rId15"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="726">
   <si>
     <t>ROUND</t>
   </si>
@@ -2204,6 +2205,27 @@
   </si>
   <si>
     <t>0-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>SYDNEY INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Jacqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>Andrea Petkovic (GERMANY)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>0-6 6-4 7-6(14)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -2651,14 +2673,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Barbora Krejčíková (CZEC</a:t>
+              <a:rPr lang="en-US" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>H REPUBLIC): YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2724,10 +2743,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2764,15 +2783,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$13</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2809,12 +2831,15 @@
                 <c:pt idx="11">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7758-403E-A739-FA31BAE14196}"/>
+              <c16:uniqueId val="{00000000-2AB4-4173-8530-A68F085D13C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2844,10 +2869,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2884,15 +2909,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$13</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2929,12 +2957,15 @@
                 <c:pt idx="11">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7758-403E-A739-FA31BAE14196}"/>
+              <c16:uniqueId val="{00000001-2AB4-4173-8530-A68F085D13C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2948,11 +2979,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1382139744"/>
-        <c:axId val="1382132256"/>
+        <c:axId val="2122888656"/>
+        <c:axId val="2122886160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1382139744"/>
+        <c:axId val="2122888656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382132256"/>
+        <c:crossAx val="2122886160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3058,7 +3089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382132256"/>
+        <c:axId val="2122886160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,13 +3130,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> MATCHES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3169,7 +3195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382139744"/>
+        <c:crossAx val="2122888656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,21 +3307,9 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Barbora Krejčíková (CZECH REPUBLIC)</a:t>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>: </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
+            <a:endParaRPr lang="en-US" sz="1100">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3391,10 +3405,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3431,15 +3445,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$13</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3476,13 +3493,16 @@
                 <c:pt idx="11">
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-191A-4B5A-BE71-35669D4DE034}"/>
+              <c16:uniqueId val="{00000000-090D-4619-89BF-49D8C386846F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3496,11 +3516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1712105264"/>
-        <c:axId val="1712106512"/>
+        <c:axId val="1676932720"/>
+        <c:axId val="1676932304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1712105264"/>
+        <c:axId val="1676932720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712106512"/>
+        <c:crossAx val="1676932304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3606,7 +3626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1712106512"/>
+        <c:axId val="1676932304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1712105264"/>
+        <c:crossAx val="1676932720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4887,7 +4907,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C8A52886-E35C-4579-8B5F-D35D457E6CC3}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4A72E42C-BFFA-44AC-B2ED-BAF32A86CB2B}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4899,28 +4919,27 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{38AD9284-0E6E-445D-A456-FB4BC9E992E4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42640561-B0A2-43B8-B32F-5FC12D7A15C6}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="9525"/>
+    <xdr:ext cx="8582025" cy="5829300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36905A0-51DA-44B5-98B5-1EB75ABB1C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D489296-D908-43BB-B914-B25376336E71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4947,13 +4966,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA2EF85-7EB1-40A0-BEBA-1BC13A0191AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB0E5C6-762E-4212-979E-13CDF2A3A2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,7 +6022,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -6578,8 +6597,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7623,14 +7642,137 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DA780F-8DBE-477B-A232-E9556FABAC55}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7680,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="e">
-        <f t="shared" ref="F2:F13" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F14" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7916,57 +8058,78 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <f>SUM(B2:B13)</f>
-        <v>185</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(C2:C13)</f>
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
-        <f>SUM(D2:D13)</f>
-        <v>318</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>170</v>
-      </c>
-      <c r="F14" s="3">
-        <f>(D14-E14)/D14</f>
-        <v>0.46540880503144655</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>698</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <f>AVERAGE(B2:B13)</f>
-        <v>15.416666666666666</v>
+        <f>SUM(B2:B14)</f>
+        <v>186</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:E15" si="1">AVERAGE(C2:C13)</f>
-        <v>0.25</v>
+        <f>SUM(C2:C14)</f>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>26.5</v>
+        <f>SUM(D2:D14)</f>
+        <v>321</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>14.166666666666666</v>
+        <f>SUM(E2:E14)</f>
+        <v>171</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.46540880503144655</v>
+        <v>0.46728971962616822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE(B2:B14)</f>
+        <v>14.307692307692308</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE(C2:C14)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D14)</f>
+        <v>24.692307692307693</v>
+      </c>
+      <c r="E16" s="2">
+        <f>AVERAGE(E2:E14)</f>
+        <v>13.153846153846153</v>
+      </c>
+      <c r="F16" s="3">
+        <f>(D16-E16)/D16</f>
+        <v>0.46728971962616828</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="F2:F14">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -8336,7 +8499,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9188" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9D81B2-5C6E-46BD-969B-5D12790098BA}"/>
+  <xr:revisionPtr revIDLastSave="9214" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CB1F34-A1C0-4C68-A942-D605365D599C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="728">
   <si>
     <t>ROUND</t>
   </si>
@@ -2036,9 +2036,6 @@
     <t>Ana Bogdan (ROMANIA)</t>
   </si>
   <si>
-    <t>Paula Badosa Gibert (SPAIN)</t>
-  </si>
-  <si>
     <t>Garbiñe Muguruza (SPAIN)</t>
   </si>
   <si>
@@ -2174,9 +2171,6 @@
     <t>Amanda Anisimova (USA)</t>
   </si>
   <si>
-    <t>Paula Badosa Gibert (SPAIN)</t>
-  </si>
-  <si>
     <t>INDIAN WELLS MASTERS</t>
   </si>
   <si>
@@ -2226,6 +2220,18 @@
   </si>
   <si>
     <t>6-3 4-6 7-6(4)</t>
+  </si>
+  <si>
+    <t>Xiyu Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2838,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +2964,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3500,7 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,8 +4938,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6022,8 +6028,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6597,8 +6603,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,7 +6868,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
@@ -6950,7 +6956,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>662</v>
+        <v>725</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -6961,7 +6967,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -6984,7 +6990,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -7004,12 +7010,12 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7018,13 +7024,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7038,7 +7044,7 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7060,13 +7066,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7094,13 +7100,13 @@
         <v>534</v>
       </c>
       <c r="D40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7122,7 +7128,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -7136,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7150,7 +7156,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -7170,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7178,13 +7184,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7204,7 @@
         <v>534</v>
       </c>
       <c r="D48" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -7212,7 +7218,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -7226,13 +7232,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7240,7 +7246,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -7288,7 +7294,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -7302,7 +7308,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7327,7 +7333,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -7336,13 +7342,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7350,7 +7356,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -7364,18 +7370,18 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -7384,7 +7390,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7398,7 +7404,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -7412,13 +7418,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7426,7 +7432,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
@@ -7446,7 +7452,7 @@
         <v>534</v>
       </c>
       <c r="D68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -7460,7 +7466,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -7474,7 +7480,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -7488,7 +7494,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -7502,7 +7508,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7522,13 +7528,13 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
+        <v>704</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
         <v>705</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7536,7 +7542,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -7550,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
@@ -7561,24 +7567,24 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
+        <v>709</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
         <v>711</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
@@ -7589,16 +7595,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -7609,21 +7615,21 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
+        <v>713</v>
+      </c>
+      <c r="D82" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
         <v>715</v>
-      </c>
-      <c r="D82" t="s">
-        <v>663</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -7632,7 +7638,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -7646,10 +7652,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,7 +7690,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7693,7 +7699,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -7707,7 +7713,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -7721,13 +7727,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7735,13 +7741,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>723</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7755,7 +7761,69 @@
         <v>534</v>
       </c>
       <c r="D7" t="s">
-        <v>722</v>
+        <v>720</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>636</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7790,10 +7858,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -8062,20 +8130,20 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8084,7 +8152,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8092,24 +8160,24 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.46728971962616822</v>
+        <v>0.47076923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>14.307692307692308</v>
+        <v>14.384615384615385</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -8117,15 +8185,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>24.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>13.153846153846153</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46728971962616828</v>
+        <v>0.47076923076923083</v>
       </c>
     </row>
   </sheetData>
@@ -13921,7 +13989,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9214" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CB1F34-A1C0-4C68-A942-D605365D599C}"/>
+  <xr:revisionPtr revIDLastSave="9241" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBCB1F41-BFB7-4A63-B82B-3940B4CB454C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="734">
   <si>
     <t>ROUND</t>
   </si>
@@ -2232,6 +2232,24 @@
   </si>
   <si>
     <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(0)</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(3)</t>
+  </si>
+  <si>
+    <t>Magda Linette</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Round of 33</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2856,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,7 +2982,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,7 +3518,7 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6603,8 +6621,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7652,15 +7670,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -7826,7 +7844,76 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>729</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>731</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>733</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7840,7 +7927,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8130,20 +8217,20 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8152,7 +8239,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8160,15 +8247,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.47076923076923077</v>
+        <v>0.46788990825688076</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,7 +8264,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>14.384615384615385</v>
+        <v>14.538461538461538</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -8185,15 +8272,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>25</v>
+        <v>25.153846153846153</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>13.23076923076923</v>
+        <v>13.384615384615385</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.47076923076923083</v>
+        <v>0.4678899082568807</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9241" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBCB1F41-BFB7-4A63-B82B-3940B4CB454C}"/>
+  <xr:revisionPtr revIDLastSave="9244" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D218C91C-A30E-4515-B487-703C74088D32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="734">
   <si>
     <t>ROUND</t>
   </si>
@@ -7670,10 +7670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,7 +7898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>733</v>
       </c>
@@ -7910,6 +7910,14 @@
       </c>
       <c r="F17" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>663</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7927,7 +7935,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,7 +8225,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8239,7 +8247,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8264,7 +8272,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>14.538461538461538</v>
+        <v>14.615384615384615</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9244" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D218C91C-A30E-4515-B487-703C74088D32}"/>
+  <xr:revisionPtr revIDLastSave="9266" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53969B47-DF50-4113-8AD8-83AC8E4D5EDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="739">
   <si>
     <t>ROUND</t>
   </si>
@@ -2250,6 +2250,21 @@
   </si>
   <si>
     <t>Round of 33</t>
+  </si>
+  <si>
+    <t>Diane Parry (FRANCE)</t>
+  </si>
+  <si>
+    <t>EASTBOURNE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska (BELGIUM)</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2997,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3533,7 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7670,10 +7685,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,10 +7929,56 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>663</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>736</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -7934,8 +7995,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,7 +8286,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8234,11 +8295,11 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,7 +8308,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8259,11 +8320,11 @@
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.46788990825688076</v>
+        <v>0.46177370030581039</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8272,7 +8333,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>14.615384615384615</v>
+        <v>14.692307692307692</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -8284,11 +8345,11 @@
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>13.384615384615385</v>
+        <v>13.538461538461538</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.4678899082568807</v>
+        <v>0.46177370030581039</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9266" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53969B47-DF50-4113-8AD8-83AC8E4D5EDE}"/>
+  <xr:revisionPtr revIDLastSave="9364" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D28AEA-5C00-4BD7-A04E-6B68C86BFFC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="759">
   <si>
     <t>ROUND</t>
   </si>
@@ -2265,6 +2265,66 @@
   </si>
   <si>
     <t>Maryna Zanevska (BELGIUM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktorija Golubic (SWITZERLAND) </t>
+  </si>
+  <si>
+    <t>Ajla Tomljanović (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>HUNGARIAN OPEN</t>
+  </si>
+  <si>
+    <t>6-1 7-6(1)</t>
+  </si>
+  <si>
+    <t>GERMAN OPEN</t>
+  </si>
+  <si>
+    <t>Suzan Lamens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Nao Hibino (JAPAN)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>TENNIS IN THE LAND</t>
+  </si>
+  <si>
+    <t>Francesca Di Lorenzo (USA)</t>
+  </si>
+  <si>
+    <t>Bernarda Pera (USA)</t>
+  </si>
+  <si>
+    <t>Fernanda Contreras Gomez (MEXICO)</t>
+  </si>
+  <si>
+    <t>TALLINN OPEN</t>
+  </si>
+  <si>
+    <t>6-1 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
@@ -2871,7 +2931,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +3057,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,7 +3593,7 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6636,8 +6696,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7685,10 +7745,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,7 +7756,7 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7979,6 +8039,284 @@
       </c>
       <c r="D23" t="s">
         <v>738</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>739</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>740</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>742</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>724</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>744</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>745</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>746</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>748</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>749</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>751</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>693</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>752</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>753</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>754</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>755</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>534</v>
+      </c>
+      <c r="D43" t="s">
+        <v>756</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>757</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>740</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>736</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -8286,20 +8624,20 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8308,7 +8646,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
@@ -8316,15 +8654,15 @@
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.46177370030581039</v>
+        <v>0.44910179640718562</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8333,7 +8671,7 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>14.692307692307692</v>
+        <v>15.307692307692308</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
@@ -8341,15 +8679,15 @@
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>25.153846153846153</v>
+        <v>25.692307692307693</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>13.538461538461538</v>
+        <v>14.153846153846153</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46177370030581039</v>
+        <v>0.44910179640718567</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9364" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D28AEA-5C00-4BD7-A04E-6B68C86BFFC7}"/>
+  <xr:revisionPtr revIDLastSave="9415" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70114762-D7AC-4C37-A824-241C742B2222}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="2021" sheetId="31" r:id="rId12"/>
     <sheet name="2022" sheetId="34" r:id="rId13"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="YTD Wins-Losses" sheetId="35" r:id="rId15"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId15"/>
     <sheet name="Winning Percentile Range" sheetId="36" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="768">
   <si>
     <t>ROUND</t>
   </si>
@@ -2243,9 +2243,6 @@
     <t>6-3 7-6(3)</t>
   </si>
   <si>
-    <t>Magda Linette</t>
-  </si>
-  <si>
     <t>QATAR OPEN</t>
   </si>
   <si>
@@ -2325,6 +2322,36 @@
   </si>
   <si>
     <t>6-1 7-6(3)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-7(5) 7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADALAJARA OPEN </t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2802,7 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2931,7 +2958,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3084,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,7 +3433,7 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:effectLst/>
@@ -3498,7 +3525,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3593,7 +3619,7 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.125</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,7 +5035,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4A72E42C-BFFA-44AC-B2ED-BAF32A86CB2B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5092,6 +5118,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6696,8 +6726,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7745,10 +7775,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7758,7 +7788,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7955,7 +7985,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -7964,7 +7994,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7975,7 +8005,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -7998,7 +8028,7 @@
         <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
@@ -8009,7 +8039,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8018,13 +8048,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>736</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8038,7 +8068,7 @@
         <v>534</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -8052,7 +8082,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8066,18 +8096,18 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>739</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>740</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8092,12 +8122,12 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8106,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8120,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8134,7 +8164,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8154,7 +8184,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8168,18 +8198,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>748</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>749</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8208,7 +8238,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8219,7 +8249,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8228,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8242,7 +8272,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8262,7 +8292,7 @@
         <v>534</v>
       </c>
       <c r="D43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8287,7 +8317,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8296,13 +8326,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,13 +8340,151 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>758</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>710</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>714</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>760</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>710</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>761</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>762</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>658</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>765</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>766</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8624,20 +8792,20 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8646,23 +8814,23 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D14)</f>
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.44910179640718562</v>
+        <v>0.46064139941690962</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,23 +8839,23 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B2:B14)</f>
-        <v>15.307692307692308</v>
+        <v>15.538461538461538</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C2:C14)</f>
-        <v>0.23076923076923078</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>25.692307692307693</v>
+        <v>26.384615384615383</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E2:E14)</f>
-        <v>14.153846153846153</v>
+        <v>14.23076923076923</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.44910179640718567</v>
+        <v>0.46064139941690962</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9415" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70114762-D7AC-4C37-A824-241C742B2222}"/>
+  <xr:revisionPtr revIDLastSave="9539" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFEE29A-CA69-4F50-98A9-2F442F54E691}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2020" sheetId="30" r:id="rId11"/>
     <sheet name="2021" sheetId="31" r:id="rId12"/>
     <sheet name="2022" sheetId="34" r:id="rId13"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId15"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId16"/>
+    <sheet name="2023" sheetId="37" r:id="rId14"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId15"/>
+    <sheet name="Wins-Losses" sheetId="38" r:id="rId16"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="776">
   <si>
     <t>ROUND</t>
   </si>
@@ -2352,6 +2353,30 @@
   </si>
   <si>
     <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(3)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Sara Bejlek (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2465,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2454,6 +2479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2869,10 +2895,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2912,15 +2938,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$14</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2960,12 +2989,15 @@
                 <c:pt idx="12">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AB4-4173-8530-A68F085D13C9}"/>
+              <c16:uniqueId val="{00000000-7DCD-4FA1-B5C1-983FCCD7D686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2995,10 +3027,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3038,15 +3070,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$14</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3086,12 +3121,15 @@
                 <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AB4-4173-8530-A68F085D13C9}"/>
+              <c16:uniqueId val="{00000001-7DCD-4FA1-B5C1-983FCCD7D686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3105,11 +3143,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122888656"/>
-        <c:axId val="2122886160"/>
+        <c:axId val="959153680"/>
+        <c:axId val="959154512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122888656"/>
+        <c:axId val="959153680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122886160"/>
+        <c:crossAx val="959154512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3215,7 +3253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122886160"/>
+        <c:axId val="959154512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122888656"/>
+        <c:crossAx val="959153680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,14 +3468,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Barbora Krejčíková (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3514,26 +3550,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3573,15 +3595,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$14</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3621,13 +3646,16 @@
                 <c:pt idx="12">
                   <c:v>0.4</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-090D-4619-89BF-49D8C386846F}"/>
+              <c16:uniqueId val="{00000000-65AB-447A-843F-2F3E29FF0A7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3641,11 +3669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1676932720"/>
-        <c:axId val="1676932304"/>
+        <c:axId val="990447728"/>
+        <c:axId val="990447312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676932720"/>
+        <c:axId val="990447728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3743,7 +3771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676932304"/>
+        <c:crossAx val="990447312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3751,7 +3779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676932304"/>
+        <c:axId val="990447312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676932720"/>
+        <c:crossAx val="990447728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3869,37 +3897,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4516,7 +4513,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4624,11 +4621,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4639,11 +4631,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4675,9 +4662,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5032,7 +5016,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4A72E42C-BFFA-44AC-B2ED-BAF32A86CB2B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37BEB678-F379-4E98-8055-8912FABC9775}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F9F26D88-9835-446E-8E01-EAC6E4431F86}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5043,28 +5039,17 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42640561-B0A2-43B8-B32F-5FC12D7A15C6}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8570360" cy="5830584"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D489296-D908-43BB-B914-B25376336E71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61F04FC-888D-3E13-7DC5-C6BCE6F3AFFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,13 +5076,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB0E5C6-762E-4212-979E-13CDF2A3A2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5AD934-89B8-6AD1-1B5A-203368AC53DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,17 +5415,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5460,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -5498,17 +5483,17 @@
       <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -5548,7 +5533,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -5562,7 +5547,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>564</v>
       </c>
@@ -5582,7 +5567,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5596,7 +5581,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -5610,7 +5595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -5624,7 +5609,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>570</v>
       </c>
@@ -5644,7 +5629,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -5658,7 +5643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -5672,7 +5657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -5686,7 +5671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5700,7 +5685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>577</v>
       </c>
@@ -5720,7 +5705,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5734,7 +5719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -5748,7 +5733,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -5762,7 +5747,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -5776,7 +5761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>585</v>
       </c>
@@ -5796,7 +5781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5824,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -5838,7 +5823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -5852,7 +5837,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -5872,7 +5857,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>592</v>
       </c>
@@ -5892,7 +5877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -5906,7 +5891,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -5920,7 +5905,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -5934,7 +5919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -5948,7 +5933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>415</v>
       </c>
@@ -5968,7 +5953,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -5982,7 +5967,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +5981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>603</v>
       </c>
@@ -6016,7 +6001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>494</v>
       </c>
@@ -6036,7 +6021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -6056,7 +6041,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -6070,7 +6055,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -6090,7 +6075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>442</v>
       </c>
@@ -6110,7 +6095,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -6124,7 +6109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -6155,17 +6140,17 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6185,7 +6170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -6205,7 +6190,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6219,7 +6204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6239,7 +6224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -6253,7 +6238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>241</v>
       </c>
@@ -6267,7 +6252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>534</v>
       </c>
@@ -6281,7 +6266,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -6295,7 +6280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>617</v>
       </c>
@@ -6315,7 +6300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -6335,7 +6320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +6334,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -6369,7 +6354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -6383,7 +6368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -6397,7 +6382,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>623</v>
       </c>
@@ -6417,7 +6402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -6431,7 +6416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6445,7 +6430,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -6465,7 +6450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -6479,7 +6464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6499,7 +6484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6513,7 +6498,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>13</v>
       </c>
@@ -6527,7 +6512,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6541,7 +6526,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>633</v>
       </c>
@@ -6561,7 +6546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -6575,7 +6560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -6589,7 +6574,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -6603,7 +6588,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>506</v>
       </c>
@@ -6623,7 +6608,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6637,7 +6622,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6651,7 +6636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -6665,7 +6650,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>558</v>
       </c>
@@ -6685,7 +6670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>13</v>
       </c>
@@ -6699,7 +6684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -6730,17 +6715,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6760,7 +6745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -6780,7 +6765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -6794,7 +6779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>647</v>
       </c>
@@ -6814,7 +6799,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -6828,7 +6813,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -6842,7 +6827,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -6862,7 +6847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -6876,7 +6861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -6896,7 +6881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -6910,7 +6895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>617</v>
       </c>
@@ -6930,7 +6915,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -6944,7 +6929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -6958,7 +6943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -6972,7 +6957,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6986,7 +6971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7000,7 +6985,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -7020,7 +7005,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>48</v>
       </c>
@@ -7034,7 +7019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -7054,7 +7039,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -7068,7 +7053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -7088,7 +7073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>663</v>
       </c>
@@ -7108,7 +7093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -7122,7 +7107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7136,7 +7121,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -7156,7 +7141,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7170,7 +7155,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7184,7 +7169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -7198,7 +7183,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7212,7 +7197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -7232,7 +7217,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -7246,7 +7231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>13</v>
       </c>
@@ -7260,7 +7245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -7274,7 +7259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7273,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -7302,7 +7287,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7316,7 +7301,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -7336,7 +7321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>48</v>
       </c>
@@ -7350,7 +7335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>13</v>
       </c>
@@ -7364,7 +7349,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7378,7 +7363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -7398,7 +7383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -7426,7 +7411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>18</v>
       </c>
@@ -7440,7 +7425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -7454,7 +7439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>687</v>
       </c>
@@ -7474,7 +7459,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>13</v>
       </c>
@@ -7488,7 +7473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -7502,7 +7487,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>693</v>
       </c>
@@ -7522,7 +7507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>13</v>
       </c>
@@ -7536,7 +7521,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -7550,7 +7535,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -7564,7 +7549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -7584,7 +7569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>48</v>
       </c>
@@ -7598,7 +7583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>13</v>
       </c>
@@ -7612,7 +7597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>12</v>
       </c>
@@ -7626,7 +7611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>16</v>
       </c>
@@ -7640,7 +7625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>707</v>
       </c>
@@ -7660,7 +7645,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>13</v>
       </c>
@@ -7674,7 +7659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>12</v>
       </c>
@@ -7688,7 +7673,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>708</v>
       </c>
@@ -7705,7 +7690,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>710</v>
       </c>
@@ -7716,7 +7701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>712</v>
       </c>
@@ -7736,7 +7721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>713</v>
       </c>
@@ -7750,7 +7735,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>713</v>
       </c>
@@ -7777,21 +7762,21 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7811,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>717</v>
       </c>
@@ -7831,7 +7816,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -7845,7 +7830,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7859,7 +7844,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -7873,7 +7858,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7893,7 +7878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -7907,7 +7892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -7921,7 +7906,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7935,7 +7920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -7949,7 +7934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>617</v>
       </c>
@@ -7969,7 +7954,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -7983,7 +7968,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>731</v>
       </c>
@@ -8003,7 +7988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>732</v>
       </c>
@@ -8017,7 +8002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -8037,7 +8022,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>734</v>
       </c>
@@ -8057,7 +8042,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -8077,7 +8062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -8091,7 +8076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -8105,7 +8090,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>741</v>
       </c>
@@ -8125,7 +8110,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>743</v>
       </c>
@@ -8145,7 +8130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -8159,7 +8144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -8173,7 +8158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>326</v>
       </c>
@@ -8193,7 +8178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -8207,7 +8192,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>750</v>
       </c>
@@ -8227,7 +8212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>693</v>
       </c>
@@ -8247,7 +8232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>752</v>
       </c>
@@ -8267,7 +8252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -8281,7 +8266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -8301,7 +8286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -8315,7 +8300,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>756</v>
       </c>
@@ -8335,7 +8320,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -8349,7 +8334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -8363,7 +8348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>18</v>
       </c>
@@ -8377,7 +8362,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -8391,7 +8376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>633</v>
       </c>
@@ -8411,7 +8396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -8425,7 +8410,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>16</v>
       </c>
@@ -8439,7 +8424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>18</v>
       </c>
@@ -8453,7 +8438,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -8467,7 +8452,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>765</v>
       </c>
@@ -8495,27 +8480,174 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB56A87-4724-465D-B024-696EA04DFC94}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A15 F1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8535,7 +8667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -8552,11 +8684,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="e">
-        <f t="shared" ref="F2:F14" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F15" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -8577,7 +8709,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -8598,7 +8730,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -8619,7 +8751,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -8640,7 +8772,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -8661,7 +8793,7 @@
         <v>-3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -8682,7 +8814,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -8703,7 +8835,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -8724,7 +8856,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -8745,7 +8877,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -8766,7 +8898,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -8787,7 +8919,7 @@
         <v>0.57777777777777772</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -8808,58 +8940,79 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
-        <f>SUM(B2:B14)</f>
-        <v>202</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(C2:C14)</f>
+      <c r="B16" s="2">
+        <f>SUM(B2:B15)</f>
+        <v>204</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C2:C15)</f>
         <v>5</v>
       </c>
-      <c r="D15" s="2">
-        <f>SUM(D2:D14)</f>
-        <v>343</v>
-      </c>
-      <c r="E15" s="2">
-        <f>SUM(E2:E14)</f>
-        <v>185</v>
-      </c>
-      <c r="F15" s="3">
-        <f>(D15-E15)/D15</f>
-        <v>0.46064139941690962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B16" s="2">
-        <f>AVERAGE(B2:B14)</f>
-        <v>15.538461538461538</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C2:C14)</f>
-        <v>0.38461538461538464</v>
-      </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D2:D14)</f>
-        <v>26.384615384615383</v>
+        <f>SUM(D2:D15)</f>
+        <v>347</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E2:E14)</f>
-        <v>14.23076923076923</v>
+        <f>SUM(E2:E15)</f>
+        <v>187</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46064139941690962</v>
+        <v>0.4610951008645533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B17" s="2">
+        <f>AVERAGE(B2:B15)</f>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE(C2:C15)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="D17" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>24.785714285714285</v>
+      </c>
+      <c r="E17" s="2">
+        <f>AVERAGE(E2:E15)</f>
+        <v>13.357142857142858</v>
+      </c>
+      <c r="F17" s="3">
+        <f>(D17-E17)/D17</f>
+        <v>0.4610951008645533</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F14">
+  <conditionalFormatting sqref="F2:F15">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -8884,17 +9037,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8914,7 +9067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -8934,7 +9087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -8948,8 +9101,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8969,7 +9122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -8983,7 +9136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -9003,7 +9156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -9017,7 +9170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -9037,7 +9190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -9057,7 +9210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -9085,7 +9238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -9099,7 +9252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -9113,7 +9266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -9133,7 +9286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9147,7 +9300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -9167,7 +9320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9181,7 +9334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -9195,7 +9348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -9233,17 +9386,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9263,7 +9416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9283,7 +9436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -9297,7 +9450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -9311,7 +9464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9331,7 +9484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9345,7 +9498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -9365,7 +9518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -9385,7 +9538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -9399,7 +9552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -9413,7 +9566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -9427,7 +9580,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -9447,7 +9600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -9461,7 +9614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -9475,7 +9628,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -9495,7 +9648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -9509,7 +9662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9523,7 +9676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -9543,7 +9696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -9557,7 +9710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -9571,7 +9724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>18</v>
       </c>
@@ -9585,7 +9738,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -9599,7 +9752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -9619,7 +9772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9633,7 +9786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -9647,7 +9800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -9685,17 +9838,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9715,7 +9868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -9735,7 +9888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -9749,7 +9902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -9763,7 +9916,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -9777,8 +9930,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -9798,7 +9951,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -9812,7 +9965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -9826,7 +9979,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -9840,7 +9993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -9860,7 +10013,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -9874,7 +10027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -9888,7 +10041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9902,7 +10055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -9922,7 +10075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9936,7 +10089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -9950,7 +10103,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -9964,7 +10117,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -9978,7 +10131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -9998,7 +10151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -10012,7 +10165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -10026,7 +10179,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10040,7 +10193,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -10060,7 +10213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -10074,7 +10227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -10094,7 +10247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>26</v>
       </c>
@@ -10108,7 +10261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>13</v>
       </c>
@@ -10122,7 +10275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -10136,7 +10289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -10150,7 +10303,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -10170,7 +10323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -10184,7 +10337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -10204,7 +10357,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -10218,7 +10371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -10232,7 +10385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10246,7 +10399,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -10260,7 +10413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -10280,7 +10433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -10294,7 +10447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -10308,7 +10461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>18</v>
       </c>
@@ -10322,7 +10475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -10342,7 +10495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>12</v>
       </c>
@@ -10356,7 +10509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -10370,7 +10523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>18</v>
       </c>
@@ -10384,7 +10537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -10398,7 +10551,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -10418,7 +10571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -10432,7 +10585,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -10446,7 +10599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -10460,7 +10613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -10474,7 +10627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -10494,7 +10647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -10508,7 +10661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -10522,7 +10675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -10542,7 +10695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>12</v>
       </c>
@@ -10556,7 +10709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -10570,7 +10723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>18</v>
       </c>
@@ -10584,7 +10737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -10604,7 +10757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -10618,7 +10771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -10632,7 +10785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10646,7 +10799,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -10678,17 +10831,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10708,7 +10861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -10728,7 +10881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10742,7 +10895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -10756,7 +10909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -10770,7 +10923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -10784,7 +10937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -10804,7 +10957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -10818,7 +10971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -10832,7 +10985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -10846,7 +10999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -10866,7 +11019,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -10886,7 +11039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -10900,7 +11053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -10914,7 +11067,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10928,7 +11081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -10942,7 +11095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -10956,7 +11109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -10976,7 +11129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -10990,7 +11143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>241</v>
       </c>
@@ -11004,7 +11157,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>247</v>
       </c>
@@ -11024,7 +11177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -11038,7 +11191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>241</v>
       </c>
@@ -11052,7 +11205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -11072,7 +11225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -11086,7 +11239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -11100,7 +11253,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -11120,7 +11273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -11134,7 +11287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -11148,7 +11301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -11162,7 +11315,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>260</v>
       </c>
@@ -11182,7 +11335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11196,7 +11349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -11210,7 +11363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -11224,7 +11377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -11238,7 +11391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -11258,7 +11411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -11272,7 +11425,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>267</v>
       </c>
@@ -11292,7 +11445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11306,7 +11459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>16</v>
       </c>
@@ -11320,7 +11473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -11334,7 +11487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11348,7 +11501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -11368,7 +11521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -11382,7 +11535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -11396,7 +11549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>18</v>
       </c>
@@ -11410,7 +11563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -11430,7 +11583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -11450,7 +11603,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -11464,7 +11617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>241</v>
       </c>
@@ -11478,7 +11631,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -11498,7 +11651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>26</v>
       </c>
@@ -11512,7 +11665,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>13</v>
       </c>
@@ -11526,7 +11679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>12</v>
       </c>
@@ -11540,7 +11693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -11560,7 +11713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -11580,7 +11733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -11594,7 +11747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -11614,7 +11767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>12</v>
       </c>
@@ -11628,7 +11781,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -11642,7 +11795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11656,7 +11809,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11688,17 +11841,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11718,7 +11871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -11738,7 +11891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -11758,7 +11911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -11772,7 +11925,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>241</v>
       </c>
@@ -11786,7 +11939,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -11806,7 +11959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -11820,7 +11973,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -11840,7 +11993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -11860,7 +12013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -11880,7 +12033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -11894,7 +12047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>311</v>
       </c>
@@ -11914,7 +12067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -11928,7 +12081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11942,7 +12095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -11956,7 +12109,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -11970,7 +12123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -11990,7 +12143,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -12004,7 +12157,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -12024,7 +12177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>323</v>
       </c>
@@ -12044,7 +12197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12058,7 +12211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -12078,7 +12231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -12098,7 +12251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>327</v>
       </c>
@@ -12118,7 +12271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -12132,7 +12285,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -12152,7 +12305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -12166,7 +12319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -12186,7 +12339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>333</v>
       </c>
@@ -12206,7 +12359,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -12226,7 +12379,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -12246,7 +12399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -12266,7 +12419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -12280,7 +12433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -12294,7 +12447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -12314,7 +12467,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -12328,7 +12481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -12342,7 +12495,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>18</v>
       </c>
@@ -12356,7 +12509,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12370,7 +12523,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>349</v>
       </c>
@@ -12390,7 +12543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -12404,7 +12557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>16</v>
       </c>
@@ -12418,7 +12571,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>353</v>
       </c>
@@ -12438,7 +12591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -12452,7 +12605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -12466,7 +12619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>18</v>
       </c>
@@ -12480,7 +12633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -12494,7 +12647,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>361</v>
       </c>
@@ -12514,7 +12667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -12534,7 +12687,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -12554,7 +12707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>365</v>
       </c>
@@ -12574,7 +12727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -12588,7 +12741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>368</v>
       </c>
@@ -12608,7 +12761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>370</v>
       </c>
@@ -12628,7 +12781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>12</v>
       </c>
@@ -12642,7 +12795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -12662,7 +12815,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -12682,7 +12835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>13</v>
       </c>
@@ -12801,17 +12954,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12831,7 +12984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12851,7 +13004,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -12865,7 +13018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>241</v>
       </c>
@@ -12879,7 +13032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -12899,7 +13052,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -12919,7 +13072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>386</v>
       </c>
@@ -12939,7 +13092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -12953,7 +13106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -12967,7 +13120,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12981,7 +13134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>390</v>
       </c>
@@ -13001,7 +13154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -13015,7 +13168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -13029,7 +13182,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>394</v>
       </c>
@@ -13049,7 +13202,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13063,7 +13216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -13083,7 +13236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -13103,7 +13256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -13117,7 +13270,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>241</v>
       </c>
@@ -13131,7 +13284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -13145,7 +13298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -13159,7 +13312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>327</v>
       </c>
@@ -13179,7 +13332,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -13199,7 +13352,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -13213,7 +13366,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -13227,7 +13380,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -13247,7 +13400,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>413</v>
       </c>
@@ -13267,7 +13420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -13287,7 +13440,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>415</v>
       </c>
@@ -13307,7 +13460,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>361</v>
       </c>
@@ -13327,7 +13480,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -13347,7 +13500,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -13361,7 +13514,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -13375,7 +13528,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>423</v>
       </c>
@@ -13395,7 +13548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -13409,7 +13562,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -13429,7 +13582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13443,7 +13596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>13</v>
       </c>
@@ -13457,7 +13610,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>429</v>
       </c>
@@ -13477,7 +13630,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -13491,7 +13644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -13505,7 +13658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>435</v>
       </c>
@@ -13525,7 +13678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>437</v>
       </c>
@@ -13545,7 +13698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -13559,7 +13712,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -13610,17 +13763,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13640,7 +13793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -13660,7 +13813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -13674,7 +13827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -13688,7 +13841,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
@@ -13708,7 +13861,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -13722,7 +13875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>449</v>
       </c>
@@ -13742,7 +13895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -13756,7 +13909,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -13776,7 +13929,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -13790,7 +13943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -13804,7 +13957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -13818,7 +13971,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>460</v>
       </c>
@@ -13838,7 +13991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -13852,7 +14005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -13866,7 +14019,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>464</v>
       </c>
@@ -13886,7 +14039,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -13900,7 +14053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -13914,7 +14067,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>18</v>
       </c>
@@ -13928,7 +14081,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -13942,7 +14095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>464</v>
       </c>
@@ -13962,7 +14115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -13976,7 +14129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -13990,7 +14143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -14004,7 +14157,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>19</v>
       </c>
@@ -14018,7 +14171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>435</v>
       </c>
@@ -14038,7 +14191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>477</v>
       </c>
@@ -14058,7 +14211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -14072,7 +14225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>406</v>
       </c>
@@ -14092,7 +14245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>26</v>
       </c>
@@ -14106,7 +14259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>13</v>
       </c>
@@ -14120,7 +14273,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -14134,7 +14287,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -14148,7 +14301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -14162,7 +14315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -14176,7 +14329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -14196,7 +14349,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -14210,7 +14363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>415</v>
       </c>
@@ -14230,7 +14383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>488</v>
       </c>
@@ -14250,7 +14403,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -14264,7 +14417,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>13</v>
       </c>
@@ -14278,7 +14431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -14292,7 +14445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -14306,7 +14459,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>494</v>
       </c>
@@ -14326,7 +14479,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -14340,7 +14493,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>499</v>
       </c>
@@ -14360,7 +14513,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>502</v>
       </c>
@@ -14380,7 +14533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -14400,7 +14553,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -14420,7 +14573,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>506</v>
       </c>
@@ -14440,7 +14593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -14454,7 +14607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>508</v>
       </c>
@@ -14491,17 +14644,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14521,7 +14674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -14541,7 +14694,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -14561,7 +14714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -14575,7 +14728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>241</v>
       </c>
@@ -14589,7 +14742,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -14609,7 +14762,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -14629,7 +14782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>521</v>
       </c>
@@ -14649,7 +14802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>707</v>
       </c>
@@ -14669,7 +14822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -14683,7 +14836,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>526</v>
       </c>
@@ -14703,7 +14856,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -14717,7 +14870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>528</v>
       </c>
@@ -14737,7 +14890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -14751,7 +14904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>477</v>
       </c>
@@ -14771,7 +14924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -14785,7 +14938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>532</v>
       </c>
@@ -14805,7 +14958,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -14825,7 +14978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -14839,7 +14992,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>241</v>
       </c>
@@ -14853,7 +15006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>534</v>
       </c>
@@ -14867,7 +15020,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>267</v>
       </c>
@@ -14887,7 +15040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -14901,7 +15054,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -14915,7 +15068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>18</v>
       </c>
@@ -14929,7 +15082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -14943,7 +15096,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>544</v>
       </c>
@@ -14963,7 +15116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>545</v>
       </c>
@@ -14983,7 +15136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -14997,7 +15150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -15017,7 +15170,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -15031,7 +15184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -15051,7 +15204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>550</v>
       </c>
@@ -15071,7 +15224,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -15085,7 +15238,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>13</v>
       </c>
@@ -15099,7 +15252,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>12</v>
       </c>
@@ -15113,7 +15266,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>555</v>
       </c>
@@ -15133,7 +15286,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -15153,7 +15306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -15167,7 +15320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>241</v>
       </c>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9539" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFEE29A-CA69-4F50-98A9-2F442F54E691}"/>
+  <xr:revisionPtr revIDLastSave="9589" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359C2106-1284-470B-8685-CAF87E808366}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="6456" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="785">
   <si>
     <t>ROUND</t>
   </si>
@@ -2377,6 +2377,33 @@
   </si>
   <si>
     <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Irina-Camelia Begu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>0-6 7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>6-1 5-7 6-0</t>
   </si>
 </sst>
 </file>
@@ -2990,7 +3017,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3149,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,7 +3674,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5031,7 +5058,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F9F26D88-9835-446E-8E01-EAC6E4431F86}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6711,7 +6738,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7762,8 +7789,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8484,20 +8511,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E15" activeCellId="3" sqref="E2 E5:E7 E10 E15:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8618,6 +8645,150 @@
       </c>
       <c r="F8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>751</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>780</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>771</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>703</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8633,8 +8804,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A15 F1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8945,20 +9116,20 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8967,23 +9138,23 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.4610951008645533</v>
+        <v>0.46610169491525422</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8992,23 +9163,23 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>14.571428571428571</v>
+        <v>14.785714285714286</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
-        <v>0.35714285714285715</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>24.785714285714285</v>
+        <v>25.285714285714285</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>13.357142857142858</v>
+        <v>13.5</v>
       </c>
       <c r="F17" s="3">
         <f>(D17-E17)/D17</f>
-        <v>0.4610951008645533</v>
+        <v>0.46610169491525422</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9589" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359C2106-1284-470B-8685-CAF87E808366}"/>
+  <xr:revisionPtr revIDLastSave="9622" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD38944-8E8F-4C9A-9E84-A01E7F48A6AC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6456" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="788">
   <si>
     <t>ROUND</t>
   </si>
@@ -2404,6 +2404,15 @@
   </si>
   <si>
     <t>6-1 5-7 6-0</t>
+  </si>
+  <si>
+    <t>6-2 6-7(1) 6-2</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
   </si>
 </sst>
 </file>
@@ -3017,7 +3026,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3158,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3674,7 +3683,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63636363636363635</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8511,10 +8520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" activeCellId="3" sqref="E2 E5:E7 E10 E15:E20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" activeCellId="5" sqref="E3 E8 E11 E13 E24 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8522,7 +8531,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -8735,7 +8744,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -8749,7 +8758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -8789,6 +8798,102 @@
       </c>
       <c r="F20" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>729</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>686</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>703</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>787</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>727</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8805,7 +8910,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9116,20 +9221,20 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9138,7 +9243,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9146,15 +9251,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46610169491525422</v>
+        <v>0.46648044692737428</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,7 +9268,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>14.785714285714286</v>
+        <v>14.928571428571429</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9171,15 +9276,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>25.285714285714285</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>13.5</v>
+        <v>13.642857142857142</v>
       </c>
       <c r="F17" s="3">
         <f>(D17-E17)/D17</f>
-        <v>0.46610169491525422</v>
+        <v>0.46648044692737434</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9622" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD38944-8E8F-4C9A-9E84-A01E7F48A6AC}"/>
+  <xr:revisionPtr revIDLastSave="9633" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057904EF-4567-4DE4-88E3-42BF26ADDBCF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="790">
   <si>
     <t>ROUND</t>
   </si>
@@ -2413,6 +2413,12 @@
   </si>
   <si>
     <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>Katarina Zavatska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -3026,7 +3032,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,7 +3164,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3689,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,7 +5521,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
@@ -6172,7 +6178,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -6747,7 +6753,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7798,8 +7804,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8520,10 +8526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" activeCellId="5" sqref="E3 E8 E11 E13 E24 E28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" activeCellId="6" sqref="E3 E8 E11 E13 E24 E28 E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,6 +8900,34 @@
       </c>
       <c r="F28" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>708</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -9221,20 +9255,20 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,7 +9277,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9251,15 +9285,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46648044692737428</v>
+        <v>0.46518105849582175</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9268,7 +9302,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>14.928571428571429</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9276,15 +9310,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>25.571428571428573</v>
+        <v>25.642857142857142</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>13.642857142857142</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="F17" s="3">
         <f>(D17-E17)/D17</f>
-        <v>0.46648044692737434</v>
+        <v>0.46518105849582175</v>
       </c>
     </row>
   </sheetData>
@@ -14916,7 +14950,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9633" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057904EF-4567-4DE4-88E3-42BF26ADDBCF}"/>
+  <xr:revisionPtr revIDLastSave="9644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5C8886-629D-4D61-A164-6C3B14CD0EDD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="790">
   <si>
     <t>ROUND</t>
   </si>
@@ -3032,7 +3032,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,7 +3164,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,7 +3689,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8526,10 +8526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" activeCellId="6" sqref="E3 E8 E11 E13 E24 E28 E31"/>
+      <selection activeCell="E34" activeCellId="7" sqref="E3 E8 E11 E13 E24 E28 E31 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8928,6 +8928,40 @@
       </c>
       <c r="F31" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>777</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>703</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9255,20 +9289,20 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9277,7 +9311,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B2:B15)</f>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C15)</f>
@@ -9285,15 +9319,15 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.46518105849582175</v>
+        <v>0.46388888888888891</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9302,7 +9336,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
-        <v>15</v>
+        <v>15.071428571428571</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C2:C15)</f>
@@ -9310,15 +9344,15 @@
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>25.642857142857142</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E2:E15)</f>
-        <v>13.714285714285714</v>
+        <v>13.785714285714286</v>
       </c>
       <c r="F17" s="3">
         <f>(D17-E17)/D17</f>
-        <v>0.46518105849582175</v>
+        <v>0.46388888888888891</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5C8886-629D-4D61-A164-6C3B14CD0EDD}"/>
+  <xr:revisionPtr revIDLastSave="9655" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C9FCFD0-86BD-4B0C-A8F7-61B22A82D9E4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="792">
   <si>
     <t>ROUND</t>
   </si>
@@ -1401,9 +1401,6 @@
     <t>TAIWAN OPEN</t>
   </si>
   <si>
-    <t>Chang Kai-chen (CHINESE TAIPEI)</t>
-  </si>
-  <si>
     <t>Miyu Kato (JAPAN)</t>
   </si>
   <si>
@@ -2419,6 +2416,15 @@
   </si>
   <si>
     <t>3-6 6-1 6-4</t>
+  </si>
+  <si>
+    <t>Chang Kai-Chen (CHINESE TAIPEI)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
   </si>
 </sst>
 </file>
@@ -5073,7 +5079,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F9F26D88-9835-446E-8E01-EAC6E4431F86}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5085,7 +5091,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5521,18 +5527,18 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5566,13 +5572,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5580,7 +5586,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -5600,13 +5606,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5614,13 +5620,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5628,7 +5634,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -5648,12 +5654,12 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5662,13 +5668,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>575</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5676,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5690,7 +5696,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5704,7 +5710,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5718,7 +5724,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -5729,7 +5735,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -5738,13 +5744,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5752,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -5766,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -5780,13 +5786,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5794,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -5805,7 +5811,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -5814,7 +5820,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -5828,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -5842,7 +5848,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -5856,7 +5862,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5870,13 +5876,13 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5896,12 +5902,12 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5910,7 +5916,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -5924,13 +5930,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5938,13 +5944,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5986,13 +5992,13 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
+        <v>597</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>598</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6000,13 +6006,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6014,7 +6020,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -6025,7 +6031,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -6045,7 +6051,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>749</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6054,7 +6060,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
@@ -6080,7 +6086,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6099,7 +6105,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -6128,13 +6134,13 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6142,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -6156,7 +6162,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -6178,18 +6184,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,7 +6220,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6223,13 +6229,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>610</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6237,7 +6243,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -6257,7 +6263,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -6271,7 +6277,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -6296,16 +6302,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6313,7 +6319,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
@@ -6324,7 +6330,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -6333,7 +6339,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -6387,7 +6393,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6401,7 +6407,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6415,18 +6421,18 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -6435,7 +6441,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6449,7 +6455,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -6469,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6483,7 +6489,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6500,7 +6506,7 @@
         <v>369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F25" t="s">
         <v>192</v>
@@ -6514,10 +6520,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -6531,13 +6537,13 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
+        <v>629</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>630</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6545,13 +6551,13 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6559,18 +6565,18 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -6579,7 +6585,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -6593,7 +6599,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -6613,7 +6619,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6621,18 +6627,18 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>635</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>636</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -6641,13 +6647,13 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6655,13 +6661,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>638</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6683,18 +6689,18 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6703,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -6731,13 +6737,13 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -6753,18 +6759,18 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6789,7 +6795,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6798,7 +6804,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -6812,7 +6818,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -6823,7 +6829,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -6832,13 +6838,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6846,13 +6852,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,7 +6866,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
@@ -6877,10 +6883,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -6894,7 +6900,7 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -6914,7 +6920,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -6928,7 +6934,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -6939,7 +6945,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -6954,7 +6960,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6976,7 +6982,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6990,7 +6996,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -7004,7 +7010,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -7018,33 +7024,33 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7052,7 +7058,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
@@ -7063,7 +7069,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -7072,13 +7078,13 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>15</v>
@@ -7097,7 +7103,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>532</v>
+        <v>790</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -7106,7 +7112,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -7126,7 +7132,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -7140,7 +7146,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -7154,18 +7160,18 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7174,13 +7180,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7188,13 +7194,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7202,7 +7208,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -7216,13 +7222,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7230,7 +7236,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -7247,16 +7253,16 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7264,7 +7270,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -7278,7 +7284,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -7292,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7306,13 +7312,13 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7326,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7334,13 +7340,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7351,10 +7357,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -7368,7 +7374,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -7382,13 +7388,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7396,7 +7402,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -7444,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -7458,7 +7464,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7483,7 +7489,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -7492,13 +7498,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7506,7 +7512,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -7520,18 +7526,18 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -7540,7 +7546,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7554,13 +7560,13 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7568,13 +7574,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7582,7 +7588,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
@@ -7599,10 +7605,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D68" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -7616,7 +7622,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -7630,7 +7636,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -7644,7 +7650,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -7658,7 +7664,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -7669,7 +7675,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7678,13 +7684,13 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
+        <v>703</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
         <v>704</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7692,7 +7698,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -7706,7 +7712,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
@@ -7717,24 +7723,24 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
@@ -7745,16 +7751,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
+        <v>712</v>
+      </c>
+      <c r="D81" t="s">
         <v>713</v>
-      </c>
-      <c r="D81" t="s">
-        <v>714</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -7765,21 +7771,21 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D82" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -7788,7 +7794,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -7804,18 +7810,18 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7840,7 +7846,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7849,7 +7855,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -7863,7 +7869,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -7877,13 +7883,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7891,13 +7897,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7908,10 +7914,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -7925,7 +7931,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -7945,7 +7951,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7953,7 +7959,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -7967,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -7978,7 +7984,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -7987,13 +7993,13 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8001,18 +8007,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>728</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>729</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -8021,7 +8027,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8032,7 +8038,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -8052,21 +8058,21 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8075,13 +8081,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>735</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8092,10 +8098,10 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -8109,7 +8115,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8123,18 +8129,18 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>738</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>739</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8143,18 +8149,18 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8163,7 +8169,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8177,7 +8183,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8191,7 +8197,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8211,7 +8217,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8225,18 +8231,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>747</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>748</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -8265,7 +8271,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8276,7 +8282,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8285,7 +8291,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8299,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8316,10 +8322,10 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8339,12 +8345,12 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8353,13 +8359,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8367,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8381,7 +8387,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -8395,13 +8401,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8409,7 +8415,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8420,7 +8426,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -8429,7 +8435,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -8443,7 +8449,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
@@ -8457,7 +8463,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -8471,13 +8477,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
+        <v>761</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>762</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8485,18 +8491,18 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -8505,7 +8511,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
@@ -8528,8 +8534,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="7" sqref="E3 E8 E11 E13 E24 E28 E31 E34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8564,7 +8570,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8573,13 +8579,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8588,7 +8594,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -8605,10 +8611,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -8623,7 +8629,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -8638,7 +8644,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8653,7 +8659,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -8664,7 +8670,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8673,7 +8679,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -8687,18 +8693,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>777</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>731</v>
+        <v>791</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8707,18 +8713,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -8727,7 +8733,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -8741,13 +8747,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8755,7 +8761,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -8769,13 +8775,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8789,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8797,7 +8803,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -8808,7 +8814,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -8817,7 +8823,7 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -8831,13 +8837,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8845,18 +8851,18 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -8865,7 +8871,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -8879,7 +8885,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -8893,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -8904,13 +8910,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8921,13 +8927,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8941,7 +8947,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8955,7 +8961,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -8977,7 +8983,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8996,10 +9002,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -9332,7 +9338,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
@@ -14103,18 +14109,18 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14230,13 +14236,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>450</v>
+        <v>789</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -14244,18 +14250,18 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -14264,13 +14270,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -14278,7 +14284,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -14292,7 +14298,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -14306,7 +14312,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
@@ -14317,7 +14323,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -14326,7 +14332,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -14354,18 +14360,18 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>461</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -14374,7 +14380,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -14388,7 +14394,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -14402,13 +14408,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14416,13 +14422,13 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -14430,7 +14436,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
@@ -14441,7 +14447,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -14450,7 +14456,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -14464,7 +14470,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -14492,7 +14498,7 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -14506,7 +14512,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -14526,7 +14532,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
@@ -14537,7 +14543,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -14546,7 +14552,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -14608,13 +14614,13 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
         <v>479</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -14628,7 +14634,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -14636,13 +14642,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
+        <v>481</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>482</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14650,7 +14656,7 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -14684,13 +14690,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14698,7 +14704,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>15</v>
@@ -14718,7 +14724,7 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>15</v>
@@ -14729,7 +14735,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -14744,7 +14750,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14752,7 +14758,7 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -14766,7 +14772,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -14794,18 +14800,18 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -14814,13 +14820,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -14828,18 +14834,18 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -14848,18 +14854,18 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
+        <v>499</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
         <v>500</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -14868,7 +14874,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>15</v>
@@ -14888,7 +14894,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>15</v>
@@ -14914,12 +14920,12 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -14928,7 +14934,7 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -14953,7 +14959,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -14962,13 +14968,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
         <v>509</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -14984,18 +14990,18 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15020,7 +15026,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -15029,13 +15035,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>512</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15049,7 +15055,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -15077,18 +15083,18 @@
         <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -15097,13 +15103,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15117,7 +15123,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -15128,7 +15134,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -15137,7 +15143,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
@@ -15148,7 +15154,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -15157,7 +15163,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -15171,18 +15177,18 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -15197,7 +15203,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -15205,7 +15211,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
@@ -15216,7 +15222,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -15239,7 +15245,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
@@ -15250,7 +15256,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -15259,7 +15265,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -15273,7 +15279,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
@@ -15284,7 +15290,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -15299,7 +15305,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -15313,7 +15319,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -15327,13 +15333,13 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15341,7 +15347,7 @@
         <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -15352,7 +15358,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -15361,7 +15367,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15375,7 +15381,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -15395,7 +15401,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -15403,7 +15409,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -15417,7 +15423,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -15437,12 +15443,12 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -15462,7 +15468,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -15496,13 +15502,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>494</v>
+        <v>749</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D44" t="s">
         <v>285</v>
@@ -15511,7 +15517,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -15519,7 +15525,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
@@ -15539,18 +15545,18 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
+        <v>547</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
         <v>548</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -15559,7 +15565,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -15579,7 +15585,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -15593,7 +15599,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -15601,18 +15607,18 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -15621,18 +15627,18 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -15641,7 +15647,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -15669,13 +15675,13 @@
         <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9655" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C9FCFD0-86BD-4B0C-A8F7-61B22A82D9E4}"/>
+  <xr:revisionPtr revIDLastSave="9657" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9022DAB1-D0A7-43BD-B6EB-E819F28FCB70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="791">
   <si>
     <t>ROUND</t>
   </si>
@@ -1642,9 +1642,6 @@
   </si>
   <si>
     <t>Martina Trevisan (ITALY)</t>
-  </si>
-  <si>
-    <t>MUTUA MADRID OPEN</t>
   </si>
   <si>
     <t>2-6 6-4 6-2</t>
@@ -5079,7 +5076,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F9F26D88-9835-446E-8E01-EAC6E4431F86}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5151,10 +5148,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5460,17 +5453,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5528,7 +5521,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5578,7 +5571,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5586,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -5597,7 +5590,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -5606,13 +5599,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5620,13 +5613,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5634,7 +5627,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -5654,12 +5647,12 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5668,13 +5661,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>574</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5696,7 +5689,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5710,7 +5703,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5724,7 +5717,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -5735,7 +5728,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -5744,13 +5737,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5758,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -5772,7 +5765,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -5786,13 +5779,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5793,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -5811,7 +5804,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -5820,7 +5813,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -5834,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -5862,7 +5855,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5876,13 +5869,13 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5902,12 +5895,12 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5916,7 +5909,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -5930,13 +5923,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5944,13 +5937,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5992,13 +5985,13 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>597</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6006,13 +5999,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6020,7 +6013,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -6031,7 +6024,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -6051,7 +6044,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6060,7 +6053,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
@@ -6086,7 +6079,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6105,7 +6098,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -6134,13 +6127,13 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -6162,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -6185,7 +6178,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6229,13 +6222,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>609</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,7 +6236,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -6263,7 +6256,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -6277,7 +6270,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -6302,16 +6295,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6330,7 +6323,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -6339,7 +6332,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -6393,7 +6386,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6407,7 +6400,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6421,18 +6414,18 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -6441,7 +6434,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6455,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -6475,7 +6468,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6489,7 +6482,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6506,7 +6499,7 @@
         <v>369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F25" t="s">
         <v>192</v>
@@ -6520,10 +6513,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -6537,13 +6530,13 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>629</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,7 +6544,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -6565,18 +6558,18 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -6585,7 +6578,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -6599,7 +6592,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -6627,13 +6620,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>635</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6647,13 +6640,13 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6661,13 +6654,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
+        <v>636</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>637</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6689,18 +6682,18 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6709,7 +6702,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -6743,7 +6736,7 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -6759,8 +6752,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6795,7 +6788,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6804,7 +6797,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -6818,7 +6811,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -6829,7 +6822,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -6838,13 +6831,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6852,13 +6845,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6866,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
@@ -6883,10 +6876,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -6934,7 +6927,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -6945,7 +6938,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -6960,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6982,7 +6975,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6996,7 +6989,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -7010,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -7024,13 +7017,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7041,16 +7034,16 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7058,7 +7051,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
@@ -7084,7 +7077,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7092,7 +7085,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>15</v>
@@ -7103,7 +7096,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -7112,7 +7105,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -7123,7 +7116,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -7132,7 +7125,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -7146,7 +7139,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -7160,18 +7153,18 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7180,13 +7173,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,7 +7193,7 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7222,13 +7215,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7253,16 +7246,16 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7284,7 +7277,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -7298,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7312,13 +7305,13 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7332,7 +7325,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7340,13 +7333,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7357,10 +7350,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D48" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -7374,7 +7367,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -7388,13 +7381,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7402,7 +7395,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -7450,7 +7443,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -7464,7 +7457,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7489,7 +7482,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -7498,13 +7491,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7512,7 +7505,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -7526,18 +7519,18 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -7546,7 +7539,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7560,13 +7553,13 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7574,13 +7567,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7588,7 +7581,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
@@ -7605,10 +7598,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D68" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -7622,7 +7615,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -7636,7 +7629,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -7650,7 +7643,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -7664,7 +7657,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -7675,7 +7668,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7684,13 +7677,13 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
+        <v>702</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
         <v>703</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7698,7 +7691,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -7712,7 +7705,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
@@ -7723,24 +7716,24 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
@@ -7751,16 +7744,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
+        <v>711</v>
+      </c>
+      <c r="D81" t="s">
         <v>712</v>
-      </c>
-      <c r="D81" t="s">
-        <v>713</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -7771,21 +7764,21 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -7794,7 +7787,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -7810,8 +7803,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7846,7 +7839,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7855,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -7869,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -7883,13 +7876,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7897,13 +7890,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7914,10 +7907,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -7931,7 +7924,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -7951,7 +7944,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7959,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -7973,7 +7966,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -7984,7 +7977,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -7993,13 +7986,13 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8007,18 +8000,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>728</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -8027,7 +8020,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8038,7 +8031,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -8058,21 +8051,21 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8081,13 +8074,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>733</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>734</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8098,10 +8091,10 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -8115,7 +8108,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8129,18 +8122,18 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>738</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8149,18 +8142,18 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8169,7 +8162,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8183,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8197,7 +8190,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8217,7 +8210,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8231,18 +8224,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>746</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>747</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8262,7 +8255,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -8271,7 +8264,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8282,7 +8275,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8291,7 +8284,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8305,7 +8298,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8322,10 +8315,10 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8345,12 +8338,12 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8359,13 +8352,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8373,7 +8366,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8387,7 +8380,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -8401,13 +8394,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8415,7 +8408,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8426,7 +8419,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -8435,7 +8428,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -8449,7 +8442,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
@@ -8463,7 +8456,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -8477,13 +8470,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
+        <v>760</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>761</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8491,18 +8484,18 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -8511,7 +8504,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
@@ -8535,7 +8528,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8570,7 +8563,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8579,13 +8572,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8594,7 +8587,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -8611,10 +8604,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -8629,7 +8622,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -8644,7 +8637,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8659,7 +8652,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -8670,7 +8663,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8679,7 +8672,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -8693,18 +8686,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>776</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8713,18 +8706,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -8733,7 +8726,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -8747,13 +8740,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8761,7 +8754,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -8775,13 +8768,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8789,13 +8782,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,7 +8796,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -8814,7 +8807,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -8823,7 +8816,7 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -8837,13 +8830,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -8851,13 +8844,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8871,7 +8864,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -8885,7 +8878,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -8899,7 +8892,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -8910,13 +8903,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8927,13 +8920,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8947,7 +8940,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8961,7 +8954,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -8984,17 +8977,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9002,10 +8995,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -9338,7 +9331,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B2:B15)</f>
@@ -9384,17 +9377,17 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9733,17 +9726,17 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10185,17 +10178,17 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11178,17 +11171,17 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12188,17 +12181,17 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13301,17 +13294,17 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14110,7 +14103,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14236,7 +14229,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -14991,7 +14984,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15154,7 +15147,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -15290,7 +15283,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>789</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -15305,7 +15298,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -15319,7 +15312,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -15333,13 +15326,13 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15347,7 +15340,7 @@
         <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -15358,7 +15351,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -15367,7 +15360,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15381,7 +15374,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -15401,7 +15394,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -15409,7 +15402,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -15423,7 +15416,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -15448,7 +15441,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -15468,7 +15461,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -15502,13 +15495,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D44" t="s">
         <v>285</v>
@@ -15517,7 +15510,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -15525,7 +15518,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
@@ -15545,18 +15538,18 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
+        <v>546</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
         <v>547</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -15565,7 +15558,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -15585,7 +15578,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -15599,7 +15592,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -15607,7 +15600,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
@@ -15618,7 +15611,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -15627,18 +15620,18 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -15647,7 +15640,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -15675,13 +15668,13 @@
         <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9364" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D28AEA-5C00-4BD7-A04E-6B68C86BFFC7}"/>
+  <xr:revisionPtr revIDLastSave="9644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5C8886-629D-4D61-A164-6C3B14CD0EDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2020" sheetId="30" r:id="rId11"/>
     <sheet name="2021" sheetId="31" r:id="rId12"/>
     <sheet name="2022" sheetId="34" r:id="rId13"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="YTD Wins-Losses" sheetId="35" r:id="rId15"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId16"/>
+    <sheet name="2023" sheetId="37" r:id="rId14"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId15"/>
+    <sheet name="Wins-Losses" sheetId="38" r:id="rId16"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="790">
   <si>
     <t>ROUND</t>
   </si>
@@ -2243,9 +2244,6 @@
     <t>6-3 7-6(3)</t>
   </si>
   <si>
-    <t>Magda Linette</t>
-  </si>
-  <si>
     <t>QATAR OPEN</t>
   </si>
   <si>
@@ -2325,6 +2323,102 @@
   </si>
   <si>
     <t>6-1 7-6(3)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-7(5) 7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADALAJARA OPEN </t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(3)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Sara Bejlek (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Irina-Camelia Begu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>0-6 7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>6-1 5-7 6-0</t>
+  </si>
+  <si>
+    <t>6-2 6-7(1) 6-2</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>Katarina Zavatska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2507,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2427,6 +2521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2775,7 +2870,7 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): Wins-Losses</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2842,10 +2937,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2885,15 +2980,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$14</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2931,14 +3029,17 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AB4-4173-8530-A68F085D13C9}"/>
+              <c16:uniqueId val="{00000000-7DCD-4FA1-B5C1-983FCCD7D686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2968,10 +3069,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3011,15 +3112,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$14</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3057,14 +3161,17 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AB4-4173-8530-A68F085D13C9}"/>
+              <c16:uniqueId val="{00000001-7DCD-4FA1-B5C1-983FCCD7D686}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3078,11 +3185,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122888656"/>
-        <c:axId val="2122886160"/>
+        <c:axId val="959153680"/>
+        <c:axId val="959154512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122888656"/>
+        <c:axId val="959153680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,7 +3287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122886160"/>
+        <c:crossAx val="959154512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3188,7 +3295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122886160"/>
+        <c:axId val="959154512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,7 +3401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122888656"/>
+        <c:crossAx val="959153680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3403,14 +3510,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Barbora Krejčíková (CZECH REPUBLIC): YTD Wins-Losses</a:t>
+              <a:t>Barbora Krejčíková (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3487,27 +3592,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3547,15 +3637,18 @@
                 <c:pt idx="12">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$14</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3593,7 +3686,10 @@
                   <c:v>0.57777777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.125</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,7 +3697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-090D-4619-89BF-49D8C386846F}"/>
+              <c16:uniqueId val="{00000000-65AB-447A-843F-2F3E29FF0A7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3615,11 +3711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1676932720"/>
-        <c:axId val="1676932304"/>
+        <c:axId val="990447728"/>
+        <c:axId val="990447312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676932720"/>
+        <c:axId val="990447728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676932304"/>
+        <c:crossAx val="990447312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3725,7 +3821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676932304"/>
+        <c:axId val="990447312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +3927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676932720"/>
+        <c:crossAx val="990447728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3843,37 +3939,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4490,7 +4555,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4598,11 +4663,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4613,11 +4673,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4649,9 +4704,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5006,7 +5058,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4A72E42C-BFFA-44AC-B2ED-BAF32A86CB2B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37BEB678-F379-4E98-8055-8912FABC9775}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5018,13 +5070,14 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42640561-B0A2-43B8-B32F-5FC12D7A15C6}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F9F26D88-9835-446E-8E01-EAC6E4431F86}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5032,13 +5085,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8570360" cy="5830584"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D489296-D908-43BB-B914-B25376336E71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61F04FC-888D-3E13-7DC5-C6BCE6F3AFFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5065,13 +5118,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB0E5C6-762E-4212-979E-13CDF2A3A2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5AD934-89B8-6AD1-1B5A-203368AC53DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,6 +5145,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5400,17 +5457,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -5464,21 +5521,21 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -5518,7 +5575,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -5532,7 +5589,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>564</v>
       </c>
@@ -5552,7 +5609,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5566,7 +5623,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -5580,7 +5637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -5594,7 +5651,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>570</v>
       </c>
@@ -5614,7 +5671,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -5628,7 +5685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -5642,7 +5699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -5656,7 +5713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5670,7 +5727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>577</v>
       </c>
@@ -5690,7 +5747,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5704,7 +5761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -5718,7 +5775,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +5789,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -5746,7 +5803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>585</v>
       </c>
@@ -5766,7 +5823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +5837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5794,7 +5851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -5808,7 +5865,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5879,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -5842,7 +5899,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>592</v>
       </c>
@@ -5862,7 +5919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +5933,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -5890,7 +5947,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -5904,7 +5961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -5918,7 +5975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>415</v>
       </c>
@@ -5938,7 +5995,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -5952,7 +6009,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -5966,7 +6023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>603</v>
       </c>
@@ -5986,7 +6043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>494</v>
       </c>
@@ -6006,7 +6063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -6026,7 +6083,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -6040,7 +6097,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -6060,7 +6117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>442</v>
       </c>
@@ -6080,7 +6137,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -6094,7 +6151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -6121,21 +6178,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6155,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -6175,7 +6232,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6189,7 +6246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6209,7 +6266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -6223,7 +6280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>241</v>
       </c>
@@ -6237,7 +6294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>534</v>
       </c>
@@ -6251,7 +6308,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -6265,7 +6322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>617</v>
       </c>
@@ -6285,7 +6342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -6305,7 +6362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -6319,7 +6376,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -6339,7 +6396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -6353,7 +6410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -6367,7 +6424,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>623</v>
       </c>
@@ -6387,7 +6444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -6401,7 +6458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6415,7 +6472,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -6435,7 +6492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -6449,7 +6506,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6469,7 +6526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6483,7 +6540,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>13</v>
       </c>
@@ -6497,7 +6554,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6511,7 +6568,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>633</v>
       </c>
@@ -6531,7 +6588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -6545,7 +6602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6616,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -6573,7 +6630,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>506</v>
       </c>
@@ -6593,7 +6650,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6607,7 +6664,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6621,7 +6678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -6635,7 +6692,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>558</v>
       </c>
@@ -6655,7 +6712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>13</v>
       </c>
@@ -6669,7 +6726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -6696,21 +6753,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6730,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -6750,7 +6807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -6764,7 +6821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>647</v>
       </c>
@@ -6784,7 +6841,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -6798,7 +6855,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -6812,7 +6869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -6832,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -6846,7 +6903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -6866,7 +6923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -6880,7 +6937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>617</v>
       </c>
@@ -6900,7 +6957,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -6914,7 +6971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -6928,7 +6985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -6942,7 +6999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6956,7 +7013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -6970,7 +7027,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -6990,7 +7047,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>48</v>
       </c>
@@ -7004,7 +7061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -7024,7 +7081,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -7038,7 +7095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -7058,7 +7115,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>663</v>
       </c>
@@ -7078,7 +7135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -7092,7 +7149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7106,7 +7163,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -7126,7 +7183,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7140,7 +7197,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -7154,7 +7211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -7168,7 +7225,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7182,7 +7239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -7202,7 +7259,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>48</v>
       </c>
@@ -7216,7 +7273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>13</v>
       </c>
@@ -7230,7 +7287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -7244,7 +7301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -7258,7 +7315,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -7272,7 +7329,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7286,7 +7343,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -7306,7 +7363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>48</v>
       </c>
@@ -7320,7 +7377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>13</v>
       </c>
@@ -7334,7 +7391,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7348,7 +7405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -7368,7 +7425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -7382,7 +7439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -7396,7 +7453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>18</v>
       </c>
@@ -7410,7 +7467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -7424,7 +7481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>687</v>
       </c>
@@ -7444,7 +7501,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>13</v>
       </c>
@@ -7458,7 +7515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -7472,7 +7529,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>693</v>
       </c>
@@ -7492,7 +7549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>13</v>
       </c>
@@ -7506,7 +7563,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -7520,7 +7577,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -7534,7 +7591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -7554,7 +7611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>48</v>
       </c>
@@ -7568,7 +7625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>13</v>
       </c>
@@ -7582,7 +7639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>12</v>
       </c>
@@ -7596,7 +7653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>16</v>
       </c>
@@ -7610,7 +7667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>707</v>
       </c>
@@ -7630,7 +7687,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>13</v>
       </c>
@@ -7644,7 +7701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>12</v>
       </c>
@@ -7658,7 +7715,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>708</v>
       </c>
@@ -7675,7 +7732,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>710</v>
       </c>
@@ -7686,7 +7743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>712</v>
       </c>
@@ -7706,7 +7763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>713</v>
       </c>
@@ -7720,7 +7777,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>713</v>
       </c>
@@ -7745,23 +7802,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7781,7 +7838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>717</v>
       </c>
@@ -7801,7 +7858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -7815,7 +7872,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7829,7 +7886,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -7843,7 +7900,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7863,7 +7920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -7877,7 +7934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -7891,7 +7948,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7905,7 +7962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -7919,7 +7976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>617</v>
       </c>
@@ -7939,7 +7996,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -7953,9 +8010,9 @@
         <v>730</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -7964,7 +8021,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7973,9 +8030,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -7987,7 +8044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -7998,7 +8055,7 @@
         <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
@@ -8007,9 +8064,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8018,16 +8075,16 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>736</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -8038,7 +8095,7 @@
         <v>534</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -8047,12 +8104,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8061,23 +8118,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>739</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>740</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>741</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>742</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8092,12 +8149,12 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>744</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8106,7 +8163,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8115,12 +8172,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8129,12 +8186,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8143,7 +8200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>326</v>
       </c>
@@ -8154,7 +8211,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8163,23 +8220,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>748</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>749</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>751</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8197,7 +8254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>693</v>
       </c>
@@ -8208,7 +8265,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8217,9 +8274,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8228,7 +8285,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8237,12 +8294,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8251,7 +8308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -8262,7 +8319,7 @@
         <v>534</v>
       </c>
       <c r="D43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8271,7 +8328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -8285,9 +8342,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8296,27 +8353,165 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>758</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>710</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>714</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>760</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>710</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>761</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>762</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>658</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>765</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>766</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8327,27 +8522,476 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB56A87-4724-465D-B024-696EA04DFC94}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="7" sqref="E3 E8 E11 E13 E24 E28 E31 E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>751</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>780</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>771</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>703</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>729</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>686</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>703</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>787</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>727</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>708</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>777</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>703</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8367,7 +9011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -8384,11 +9028,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="e">
-        <f t="shared" ref="F2:F14" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F15" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -8409,7 +9053,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -8430,7 +9074,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -8451,7 +9095,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -8472,7 +9116,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -8493,7 +9137,7 @@
         <v>-3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -8514,7 +9158,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -8535,7 +9179,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -8556,7 +9200,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -8577,7 +9221,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -8598,7 +9242,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -8619,79 +9263,100 @@
         <v>0.57777777777777772</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
-        <f>SUM(B2:B14)</f>
-        <v>199</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(C2:C14)</f>
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(D2:D14)</f>
-        <v>334</v>
-      </c>
-      <c r="E15" s="2">
-        <f>SUM(E2:E14)</f>
-        <v>184</v>
-      </c>
-      <c r="F15" s="3">
-        <f>(D15-E15)/D15</f>
-        <v>0.44910179640718562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="B16" s="2">
-        <f>AVERAGE(B2:B14)</f>
-        <v>15.307692307692308</v>
+        <f>SUM(B2:B15)</f>
+        <v>211</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C2:C14)</f>
-        <v>0.23076923076923078</v>
+        <f>SUM(C2:C15)</f>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D2:D14)</f>
-        <v>25.692307692307693</v>
+        <f>SUM(D2:D15)</f>
+        <v>360</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E2:E14)</f>
-        <v>14.153846153846153</v>
+        <f>SUM(E2:E15)</f>
+        <v>193</v>
       </c>
       <c r="F16" s="3">
         <f>(D16-E16)/D16</f>
-        <v>0.44910179640718567</v>
+        <v>0.46388888888888891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B17" s="2">
+        <f>AVERAGE(B2:B15)</f>
+        <v>15.071428571428571</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE(C2:C15)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D17" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="E17" s="2">
+        <f>AVERAGE(E2:E15)</f>
+        <v>13.785714285714286</v>
+      </c>
+      <c r="F17" s="3">
+        <f>(D17-E17)/D17</f>
+        <v>0.46388888888888891</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F14">
+  <conditionalFormatting sqref="F2:F15">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -8716,17 +9381,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8746,7 +9411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -8766,7 +9431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -8780,8 +9445,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8801,7 +9466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -8815,7 +9480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -8835,7 +9500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8849,7 +9514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -8869,7 +9534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8889,7 +9554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -8903,7 +9568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8917,7 +9582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -8931,7 +9596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -8945,7 +9610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -8965,7 +9630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -8979,7 +9644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -8999,7 +9664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9013,7 +9678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -9027,7 +9692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -9065,17 +9730,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9115,7 +9780,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -9129,7 +9794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -9143,7 +9808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9163,7 +9828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9177,7 +9842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -9197,7 +9862,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -9217,7 +9882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -9231,7 +9896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -9245,7 +9910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -9259,7 +9924,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -9279,7 +9944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -9293,7 +9958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -9307,7 +9972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -9327,7 +9992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -9341,7 +10006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -9355,7 +10020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -9375,7 +10040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -9389,7 +10054,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -9403,7 +10068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>18</v>
       </c>
@@ -9417,7 +10082,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -9431,7 +10096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -9451,7 +10116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9465,7 +10130,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -9479,7 +10144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -9517,17 +10182,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9547,7 +10212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -9567,7 +10232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -9581,7 +10246,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -9595,7 +10260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -9609,8 +10274,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -9630,7 +10295,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -9644,7 +10309,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -9658,7 +10323,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -9672,7 +10337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -9692,7 +10357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -9706,7 +10371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -9720,7 +10385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9734,7 +10399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -9754,7 +10419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9768,7 +10433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -9782,7 +10447,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -9796,7 +10461,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -9810,7 +10475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -9830,7 +10495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9844,7 +10509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -9858,7 +10523,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -9872,7 +10537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -9892,7 +10557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -9906,7 +10571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -9926,7 +10591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>26</v>
       </c>
@@ -9940,7 +10605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>13</v>
       </c>
@@ -9954,7 +10619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -9968,7 +10633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -9982,7 +10647,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -10002,7 +10667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -10016,7 +10681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -10036,7 +10701,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -10050,7 +10715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -10064,7 +10729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10078,7 +10743,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -10092,7 +10757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -10112,7 +10777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -10126,7 +10791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -10140,7 +10805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>18</v>
       </c>
@@ -10154,7 +10819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -10174,7 +10839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>12</v>
       </c>
@@ -10188,7 +10853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -10202,7 +10867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>18</v>
       </c>
@@ -10216,7 +10881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -10230,7 +10895,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -10250,7 +10915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -10264,7 +10929,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -10278,7 +10943,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -10292,7 +10957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -10306,7 +10971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -10326,7 +10991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -10340,7 +11005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -10354,7 +11019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -10374,7 +11039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>12</v>
       </c>
@@ -10388,7 +11053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -10402,7 +11067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>18</v>
       </c>
@@ -10416,7 +11081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -10436,7 +11101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -10450,7 +11115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -10464,7 +11129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -10478,7 +11143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -10510,17 +11175,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10540,7 +11205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -10560,7 +11225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10574,7 +11239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -10588,7 +11253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -10602,7 +11267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -10616,7 +11281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -10636,7 +11301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -10650,7 +11315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -10664,7 +11329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -10678,7 +11343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -10698,7 +11363,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -10718,7 +11383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -10732,7 +11397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -10746,7 +11411,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10760,7 +11425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -10774,7 +11439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -10788,7 +11453,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -10808,7 +11473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -10822,7 +11487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>241</v>
       </c>
@@ -10836,7 +11501,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>247</v>
       </c>
@@ -10856,7 +11521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -10870,7 +11535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>241</v>
       </c>
@@ -10884,7 +11549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -10904,7 +11569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10918,7 +11583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -10932,7 +11597,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -10952,7 +11617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10966,7 +11631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -10980,7 +11645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -10994,7 +11659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>260</v>
       </c>
@@ -11014,7 +11679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11028,7 +11693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -11042,7 +11707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -11056,7 +11721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -11070,7 +11735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -11090,7 +11755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -11104,7 +11769,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>267</v>
       </c>
@@ -11124,7 +11789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11138,7 +11803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>16</v>
       </c>
@@ -11152,7 +11817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -11166,7 +11831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11180,7 +11845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -11200,7 +11865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -11214,7 +11879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -11228,7 +11893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>18</v>
       </c>
@@ -11242,7 +11907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -11262,7 +11927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -11282,7 +11947,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -11296,7 +11961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>241</v>
       </c>
@@ -11310,7 +11975,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -11330,7 +11995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>26</v>
       </c>
@@ -11344,7 +12009,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>13</v>
       </c>
@@ -11358,7 +12023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>12</v>
       </c>
@@ -11372,7 +12037,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -11392,7 +12057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -11412,7 +12077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -11426,7 +12091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -11446,7 +12111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>12</v>
       </c>
@@ -11460,7 +12125,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -11474,7 +12139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>18</v>
       </c>
@@ -11488,7 +12153,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11520,17 +12185,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11550,7 +12215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -11570,7 +12235,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -11590,7 +12255,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -11604,7 +12269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>241</v>
       </c>
@@ -11618,7 +12283,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -11638,7 +12303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -11652,7 +12317,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -11672,7 +12337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -11692,7 +12357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -11712,7 +12377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -11726,7 +12391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>311</v>
       </c>
@@ -11746,7 +12411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -11760,7 +12425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11774,7 +12439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -11788,7 +12453,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -11802,7 +12467,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -11822,7 +12487,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11836,7 +12501,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -11856,7 +12521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>323</v>
       </c>
@@ -11876,7 +12541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -11890,7 +12555,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -11910,7 +12575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -11930,7 +12595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>327</v>
       </c>
@@ -11950,7 +12615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11964,7 +12629,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -11984,7 +12649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11998,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -12018,7 +12683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>333</v>
       </c>
@@ -12038,7 +12703,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -12058,7 +12723,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -12078,7 +12743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -12098,7 +12763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -12112,7 +12777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -12126,7 +12791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -12146,7 +12811,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -12160,7 +12825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -12174,7 +12839,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>18</v>
       </c>
@@ -12188,7 +12853,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12202,7 +12867,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>349</v>
       </c>
@@ -12222,7 +12887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -12236,7 +12901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>16</v>
       </c>
@@ -12250,7 +12915,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>353</v>
       </c>
@@ -12270,7 +12935,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -12284,7 +12949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>18</v>
       </c>
@@ -12312,7 +12977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -12326,7 +12991,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>361</v>
       </c>
@@ -12346,7 +13011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -12366,7 +13031,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -12386,7 +13051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>365</v>
       </c>
@@ -12406,7 +13071,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -12420,7 +13085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>368</v>
       </c>
@@ -12440,7 +13105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>370</v>
       </c>
@@ -12460,7 +13125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>12</v>
       </c>
@@ -12474,7 +13139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -12494,7 +13159,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -12514,7 +13179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>13</v>
       </c>
@@ -12633,17 +13298,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12663,7 +13328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12683,7 +13348,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -12697,7 +13362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>241</v>
       </c>
@@ -12711,7 +13376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -12731,7 +13396,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -12751,7 +13416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>386</v>
       </c>
@@ -12771,7 +13436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -12785,7 +13450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -12799,7 +13464,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12813,7 +13478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>390</v>
       </c>
@@ -12833,7 +13498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -12847,7 +13512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -12861,7 +13526,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>394</v>
       </c>
@@ -12881,7 +13546,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -12895,7 +13560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -12915,7 +13580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -12935,7 +13600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12949,7 +13614,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>241</v>
       </c>
@@ -12963,7 +13628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -12977,7 +13642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -12991,7 +13656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>327</v>
       </c>
@@ -13011,7 +13676,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -13031,7 +13696,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13710,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -13059,7 +13724,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -13079,7 +13744,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>413</v>
       </c>
@@ -13099,7 +13764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -13119,7 +13784,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>415</v>
       </c>
@@ -13139,7 +13804,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>361</v>
       </c>
@@ -13159,7 +13824,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -13179,7 +13844,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -13193,7 +13858,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -13207,7 +13872,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>423</v>
       </c>
@@ -13227,7 +13892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -13241,7 +13906,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -13261,7 +13926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13275,7 +13940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>13</v>
       </c>
@@ -13289,7 +13954,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>429</v>
       </c>
@@ -13309,7 +13974,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -13323,7 +13988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -13337,7 +14002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>435</v>
       </c>
@@ -13357,7 +14022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>437</v>
       </c>
@@ -13377,7 +14042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -13391,7 +14056,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>16</v>
       </c>
@@ -13405,7 +14070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -13442,17 +14107,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13472,7 +14137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -13492,7 +14157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -13506,7 +14171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -13520,7 +14185,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
@@ -13540,7 +14205,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -13554,7 +14219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>449</v>
       </c>
@@ -13574,7 +14239,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -13588,7 +14253,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -13608,7 +14273,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -13622,7 +14287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -13636,7 +14301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -13650,7 +14315,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>460</v>
       </c>
@@ -13670,7 +14335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -13684,7 +14349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -13698,7 +14363,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>464</v>
       </c>
@@ -13718,7 +14383,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -13732,7 +14397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -13746,7 +14411,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>18</v>
       </c>
@@ -13760,7 +14425,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -13774,7 +14439,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>464</v>
       </c>
@@ -13794,7 +14459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -13808,7 +14473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -13822,7 +14487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -13836,7 +14501,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>19</v>
       </c>
@@ -13850,7 +14515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>435</v>
       </c>
@@ -13870,7 +14535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>477</v>
       </c>
@@ -13890,7 +14555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -13904,7 +14569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>406</v>
       </c>
@@ -13924,7 +14589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>26</v>
       </c>
@@ -13938,7 +14603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>13</v>
       </c>
@@ -13952,7 +14617,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -13966,7 +14631,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -13980,7 +14645,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -13994,7 +14659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +14673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -14028,7 +14693,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -14042,7 +14707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>415</v>
       </c>
@@ -14062,7 +14727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>488</v>
       </c>
@@ -14082,7 +14747,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -14096,7 +14761,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>13</v>
       </c>
@@ -14110,7 +14775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -14124,7 +14789,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -14138,7 +14803,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>494</v>
       </c>
@@ -14158,7 +14823,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -14172,7 +14837,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>499</v>
       </c>
@@ -14192,7 +14857,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>502</v>
       </c>
@@ -14212,7 +14877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -14232,7 +14897,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -14252,7 +14917,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>506</v>
       </c>
@@ -14272,7 +14937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -14286,7 +14951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>508</v>
       </c>
@@ -14319,21 +14984,21 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14353,7 +15018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -14373,7 +15038,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -14393,7 +15058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -14407,7 +15072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>241</v>
       </c>
@@ -14421,7 +15086,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -14441,7 +15106,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -14461,7 +15126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>521</v>
       </c>
@@ -14481,7 +15146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>707</v>
       </c>
@@ -14501,7 +15166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -14515,7 +15180,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>526</v>
       </c>
@@ -14535,7 +15200,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -14549,7 +15214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>528</v>
       </c>
@@ -14569,7 +15234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -14583,7 +15248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>477</v>
       </c>
@@ -14603,7 +15268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -14617,7 +15282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>532</v>
       </c>
@@ -14637,7 +15302,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -14657,7 +15322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -14671,7 +15336,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>241</v>
       </c>
@@ -14685,7 +15350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>534</v>
       </c>
@@ -14699,7 +15364,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>267</v>
       </c>
@@ -14719,7 +15384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -14733,7 +15398,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -14747,7 +15412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>18</v>
       </c>
@@ -14761,7 +15426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -14775,7 +15440,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>544</v>
       </c>
@@ -14795,7 +15460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>545</v>
       </c>
@@ -14815,7 +15480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -14829,7 +15494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -14849,7 +15514,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -14863,7 +15528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -14883,7 +15548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>550</v>
       </c>
@@ -14903,7 +15568,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -14917,7 +15582,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>13</v>
       </c>
@@ -14931,7 +15596,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>12</v>
       </c>
@@ -14945,7 +15610,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>555</v>
       </c>
@@ -14965,7 +15630,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -14985,7 +15650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -14999,7 +15664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>241</v>
       </c>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10068" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F2C050C-9C72-4CE8-B44F-FDBD591B5BBC}"/>
+  <xr:revisionPtr revIDLastSave="10078" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83C8A48-1A7D-43F1-8881-6D11E01C1C7D}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <sheet name="2022" sheetId="34" r:id="rId13"/>
     <sheet name="2023" sheetId="37" r:id="rId14"/>
     <sheet name="2024" sheetId="40" r:id="rId15"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId17"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId18"/>
+    <sheet name="Stats" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3095,7 +3093,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3116,7 +3114,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3170,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>Stats!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3224,7 +3222,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D368-4027-8177-51EEEE6DE4C4}"/>
+              <c16:uniqueId val="{00000000-6666-47B6-827B-969CD3D85C9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3233,7 +3231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3254,7 +3252,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3308,7 +3306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>Stats!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3362,7 +3360,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D368-4027-8177-51EEEE6DE4C4}"/>
+              <c16:uniqueId val="{00000001-6666-47B6-827B-969CD3D85C9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3664,6 +3662,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3752,7 +3755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3801,7 +3804,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3855,7 +3858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>Stats!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3910,7 +3913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB2F-4D8B-9161-9C6E493F6068}"/>
+              <c16:uniqueId val="{00000001-9B06-47F6-B8FA-00647BAA9D93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4212,6 +4215,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5301,45 +5309,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{18AAE4C3-BCFF-4292-902F-176BF9A9BB83}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0B86D22D-9FBE-497A-AA02-6217675AD38F}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E864778E-032A-1C41-7D8F-B318FEDDDD96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142CBB4F-24CE-AD4A-C761-770879D824AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5352,27 +5346,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEEAD1A-5CB4-EC80-1D80-6F13E6B67B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CC372D-49B3-01D7-78FA-E9D95AA1A656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5380,12 +5377,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5695,7 +5692,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5763,7 +5760,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6420,7 +6417,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6995,7 +6992,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8046,7 +8043,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8770,7 +8767,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9686,7 +9683,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10332,7 +10329,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10742,6 +10739,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10752,7 +10750,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11101,7 +11099,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11553,7 +11551,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12546,7 +12544,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13556,7 +13554,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14669,7 +14667,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15478,7 +15476,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16359,7 +16357,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10078" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83C8A48-1A7D-43F1-8881-6D11E01C1C7D}"/>
+  <xr:revisionPtr revIDLastSave="10083" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0D8D73-178E-4E7A-B546-CBADB85C50A4}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="10" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="851">
   <si>
     <t>ROUND</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Mihaela Buzărnescu (ROMANIA)</t>
   </si>
   <si>
-    <t>Wang Yafan (CHINA)</t>
-  </si>
-  <si>
     <t>6-3 7-6(4)</t>
   </si>
   <si>
@@ -1226,9 +1223,6 @@
     <t>Karin Terami (JAPAN)</t>
   </si>
   <si>
-    <t>Lee Ya-hsuan (CHINESE TAIPEI)</t>
-  </si>
-  <si>
     <t>6-4 2-6 6-4</t>
   </si>
   <si>
@@ -1769,9 +1763,6 @@
     <t>Sanaz Marand (USA)</t>
   </si>
   <si>
-    <t>Ingrid Neel (USA)</t>
-  </si>
-  <si>
     <t>5-7 6-2 6-0</t>
   </si>
   <si>
@@ -2354,9 +2345,6 @@
     <t>Alison Riske-Amritraj (USA)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>Sara Bejlek (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -2598,6 +2586,21 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Kateryna Baindl (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Lee Ya-Hsuan (CHINESE TAIPEI)</t>
+  </si>
+  <si>
+    <t>Yafan Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>Ingrid Neel (ESTONIA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -5386,10 +5389,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5728,7 +5727,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5737,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
@@ -5761,7 +5760,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5805,13 +5804,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,18 +5818,18 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -5839,13 +5838,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5853,13 +5852,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,7 +5866,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -5881,18 +5880,18 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5901,13 +5900,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>573</v>
+        <v>849</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5915,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5929,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5943,7 +5942,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5957,7 +5956,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -5968,7 +5967,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -5977,13 +5976,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5991,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6005,13 +6004,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,13 +6018,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6033,7 +6032,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6044,7 +6043,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -6053,7 +6052,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -6067,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -6081,7 +6080,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6095,13 +6094,13 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6109,13 +6108,13 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,18 +6128,18 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -6149,7 +6148,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -6163,13 +6162,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6177,13 +6176,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6191,7 +6190,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -6205,7 +6204,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -6216,7 +6215,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -6225,13 +6224,13 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,13 +6238,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6252,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -6264,7 +6263,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -6273,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
@@ -6284,7 +6283,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6293,7 +6292,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
@@ -6313,13 +6312,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6327,18 +6326,18 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -6347,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>15</v>
@@ -6358,7 +6357,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -6367,13 +6366,13 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6381,13 +6380,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6395,7 +6394,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -6453,7 +6452,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6462,13 +6461,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6476,7 +6475,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -6496,7 +6495,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -6510,7 +6509,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -6521,10 +6520,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -6535,16 +6534,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6552,7 +6551,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
@@ -6563,7 +6562,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -6572,7 +6571,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -6583,7 +6582,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -6592,7 +6591,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -6606,18 +6605,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -6626,7 +6625,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6640,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6654,18 +6653,18 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>613</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>616</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -6674,7 +6673,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6688,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -6702,18 +6701,18 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6722,7 +6721,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6736,13 +6735,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,10 +6752,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -6770,13 +6769,13 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,13 +6783,13 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6798,18 +6797,18 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
+        <v>623</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
         <v>626</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -6818,7 +6817,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -6832,7 +6831,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -6846,13 +6845,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6860,18 +6859,18 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -6880,13 +6879,13 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,13 +6893,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6908,7 +6907,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -6922,18 +6921,18 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6942,7 +6941,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -6956,7 +6955,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -6970,13 +6969,13 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6992,7 +6991,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7028,7 +7027,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7037,7 +7036,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -7051,7 +7050,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -7062,7 +7061,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -7071,13 +7070,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7085,13 +7084,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,13 +7098,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7116,16 +7115,16 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7133,18 +7132,18 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -7153,7 +7152,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -7167,7 +7166,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -7178,7 +7177,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -7187,13 +7186,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7201,7 +7200,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7215,7 +7214,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -7229,13 +7228,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7243,7 +7242,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -7257,33 +7256,33 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7291,7 +7290,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
@@ -7302,7 +7301,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -7311,13 +7310,13 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>15</v>
@@ -7336,7 +7335,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -7345,18 +7344,18 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -7365,7 +7364,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -7379,7 +7378,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -7393,18 +7392,18 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7413,13 +7412,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7427,13 +7426,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7441,13 +7440,13 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7455,13 +7454,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7469,7 +7468,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -7486,16 +7485,16 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D40" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7503,7 +7502,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -7517,7 +7516,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -7531,7 +7530,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7545,13 +7544,13 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,13 +7558,13 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7573,13 +7572,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7590,10 +7589,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D48" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -7607,7 +7606,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -7621,13 +7620,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7635,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -7646,7 +7645,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -7655,7 +7654,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -7669,13 +7668,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7683,7 +7682,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -7697,7 +7696,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7711,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -7722,7 +7721,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -7731,13 +7730,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7745,7 +7744,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -7759,18 +7758,18 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -7779,7 +7778,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7793,13 +7792,13 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7807,13 +7806,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7821,7 +7820,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
@@ -7838,10 +7837,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D68" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -7855,7 +7854,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -7869,7 +7868,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -7883,13 +7882,13 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7897,7 +7896,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -7908,7 +7907,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7917,13 +7916,13 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7931,7 +7930,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -7945,55 +7944,55 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D81" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -8004,21 +8003,21 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D82" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -8027,7 +8026,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -8043,8 +8042,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8079,7 +8078,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8088,13 +8087,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8102,13 +8101,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8116,13 +8115,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8130,13 +8129,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8147,10 +8146,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8164,7 +8163,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -8178,13 +8177,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8192,7 +8191,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -8206,7 +8205,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -8217,7 +8216,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8226,13 +8225,13 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8240,18 +8239,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -8260,7 +8259,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8271,10 +8270,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -8291,21 +8290,21 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8314,13 +8313,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,16 +8330,16 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D23" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8348,7 +8347,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8362,18 +8361,18 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8382,18 +8381,18 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8402,7 +8401,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8416,7 +8415,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8430,7 +8429,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8441,7 +8440,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -8450,7 +8449,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8464,18 +8463,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8495,7 +8494,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -8504,7 +8503,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8515,7 +8514,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8524,7 +8523,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8538,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8555,10 +8554,10 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D43" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8572,18 +8571,18 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8592,13 +8591,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,7 +8605,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8620,7 +8619,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -8634,13 +8633,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8648,7 +8647,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8659,7 +8658,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -8668,7 +8667,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -8682,13 +8681,13 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,13 +8695,13 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8710,13 +8709,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8724,18 +8723,18 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -8744,7 +8743,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
@@ -8767,8 +8766,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8803,7 +8802,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8812,13 +8811,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8827,7 +8826,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -8844,10 +8843,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -8862,7 +8861,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -8877,7 +8876,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8892,7 +8891,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -8903,7 +8902,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8912,7 +8911,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -8926,18 +8925,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8946,18 +8945,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -8966,7 +8965,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -8980,13 +8979,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8994,7 +8993,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -9008,13 +9007,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9022,13 +9021,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,7 +9035,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -9047,7 +9046,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -9056,7 +9055,7 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -9070,13 +9069,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9084,18 +9083,18 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -9104,7 +9103,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -9118,13 +9117,13 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,7 +9131,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -9143,13 +9142,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -9160,18 +9159,18 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -9180,7 +9179,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -9194,7 +9193,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -9205,7 +9204,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -9214,13 +9213,13 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9228,7 +9227,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -9242,18 +9241,18 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -9262,13 +9261,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9276,13 +9275,13 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9293,10 +9292,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D43" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
@@ -9307,7 +9306,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
@@ -9316,7 +9315,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -9330,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
@@ -9344,7 +9343,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -9358,7 +9357,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -9372,13 +9371,13 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9389,10 +9388,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D51" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -9406,18 +9405,18 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -9426,7 +9425,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
@@ -9437,7 +9436,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -9446,7 +9445,7 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>15</v>
@@ -9463,21 +9462,21 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D58" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -9486,7 +9485,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -9500,7 +9499,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -9514,13 +9513,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9528,18 +9527,18 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -9548,7 +9547,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
@@ -9559,7 +9558,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -9568,13 +9567,13 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9582,13 +9581,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9596,7 +9595,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -9610,41 +9609,41 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D72" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D73" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
@@ -9655,13 +9654,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -9683,8 +9682,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9719,7 +9718,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -9728,13 +9727,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9745,16 +9744,16 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9762,7 +9761,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -9776,13 +9775,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9790,13 +9789,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9804,7 +9803,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -9815,7 +9814,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9824,13 +9823,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9838,7 +9837,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -9849,7 +9848,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -9858,18 +9857,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -9878,13 +9877,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9895,21 +9894,21 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D17" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9918,13 +9917,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9932,7 +9931,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -9946,7 +9945,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
@@ -9957,7 +9956,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -9966,13 +9965,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9983,16 +9982,16 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10000,13 +9999,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10014,13 +10013,13 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10028,7 +10027,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -10042,13 +10041,13 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,13 +10055,13 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10070,18 +10069,18 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -10090,13 +10089,13 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10104,7 +10103,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -10118,13 +10117,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10132,7 +10131,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
@@ -10149,16 +10148,16 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D38" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10166,7 +10165,7 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
@@ -10177,7 +10176,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -10186,18 +10185,18 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -10206,7 +10205,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
@@ -10217,7 +10216,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -10226,13 +10225,13 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10241,27 +10240,27 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D48" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -10273,10 +10272,10 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="C49" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D49" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -10288,16 +10287,16 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="C50" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D50" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10306,7 +10305,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -10347,10 +10346,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -10704,7 +10703,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B18" s="2">
         <f>AVERAGE(B2:B16)</f>
@@ -10786,7 +10785,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -10795,7 +10794,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -10809,19 +10808,19 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -10830,7 +10829,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -10844,7 +10843,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
@@ -10855,7 +10854,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -10864,13 +10863,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10878,18 +10877,18 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -10898,18 +10897,18 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10918,7 +10917,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -10932,13 +10931,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10946,7 +10945,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -10960,7 +10959,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -10974,18 +10973,18 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -10994,13 +10993,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11008,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
@@ -11019,7 +11018,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11028,7 +11027,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -11042,13 +11041,13 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11056,18 +11055,18 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -11135,7 +11134,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -11144,13 +11143,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,7 +11157,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -11172,18 +11171,18 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -11192,7 +11191,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -11206,7 +11205,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
@@ -11217,7 +11216,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -11226,18 +11225,18 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>121</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -11246,7 +11245,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -11260,7 +11259,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -11274,7 +11273,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -11288,18 +11287,18 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>126</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -11308,7 +11307,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -11322,13 +11321,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11336,18 +11335,18 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11356,7 +11355,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -11370,7 +11369,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -11384,7 +11383,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
@@ -11395,7 +11394,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11404,13 +11403,13 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11418,13 +11417,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11432,7 +11431,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -11446,13 +11445,13 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11460,7 +11459,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -11471,7 +11470,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -11480,7 +11479,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -11494,13 +11493,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11508,7 +11507,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
@@ -11519,7 +11518,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -11528,7 +11527,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -11551,8 +11550,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11587,7 +11586,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -11596,7 +11595,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -11610,13 +11609,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11624,13 +11623,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11638,7 +11637,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
@@ -11650,7 +11649,7 @@
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -11659,13 +11658,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11673,13 +11672,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11687,13 +11686,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11701,7 +11700,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -11712,7 +11711,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -11721,13 +11720,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,7 +11734,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -11749,7 +11748,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -11763,7 +11762,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
@@ -11774,7 +11773,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11797,7 +11796,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -11811,13 +11810,13 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11825,13 +11824,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,7 +11838,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
@@ -11850,7 +11849,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11859,7 +11858,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -11873,7 +11872,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -11887,13 +11886,13 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11901,18 +11900,18 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -11921,7 +11920,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -11935,7 +11934,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>15</v>
@@ -11946,7 +11945,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -11955,7 +11954,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -11969,13 +11968,13 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11983,7 +11982,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -11997,13 +11996,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12011,18 +12010,18 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -12031,7 +12030,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -12045,7 +12044,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -12056,7 +12055,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -12065,13 +12064,13 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -12079,13 +12078,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12093,7 +12092,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -12107,13 +12106,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -12121,7 +12120,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -12132,7 +12131,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -12141,7 +12140,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
@@ -12155,7 +12154,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -12169,13 +12168,13 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -12183,18 +12182,18 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -12203,7 +12202,7 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -12217,7 +12216,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -12231,7 +12230,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -12245,7 +12244,7 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -12259,18 +12258,18 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -12279,7 +12278,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -12293,13 +12292,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -12307,13 +12306,13 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12321,7 +12320,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -12335,7 +12334,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -12346,7 +12345,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -12355,7 +12354,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -12369,7 +12368,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -12383,7 +12382,7 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
@@ -12394,7 +12393,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -12403,7 +12402,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -12417,7 +12416,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -12431,7 +12430,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -12445,7 +12444,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>15</v>
@@ -12456,7 +12455,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -12465,7 +12464,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
@@ -12479,7 +12478,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
@@ -12493,7 +12492,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
@@ -12507,13 +12506,13 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -12521,13 +12520,13 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -12544,7 +12543,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12580,7 +12579,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -12589,7 +12588,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -12603,7 +12602,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -12617,13 +12616,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12631,7 +12630,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -12645,7 +12644,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
@@ -12656,7 +12655,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -12665,7 +12664,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -12679,7 +12678,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -12693,7 +12692,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -12707,7 +12706,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -12718,7 +12717,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -12727,18 +12726,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>231</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -12747,7 +12746,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -12761,13 +12760,13 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12775,13 +12774,13 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12789,7 +12788,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -12803,7 +12802,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -12817,18 +12816,18 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -12837,7 +12836,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -12851,7 +12850,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -12862,21 +12861,21 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -12885,7 +12884,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -12899,7 +12898,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -12910,10 +12909,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -12924,7 +12923,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -12933,7 +12932,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -12947,7 +12946,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -12961,18 +12960,18 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -12981,13 +12980,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12995,7 +12994,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -13009,7 +13008,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -13023,18 +13022,18 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -13043,7 +13042,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -13057,7 +13056,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -13071,7 +13070,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -13085,7 +13084,7 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -13099,7 +13098,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -13110,7 +13109,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -13119,7 +13118,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -13133,18 +13132,18 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -13153,7 +13152,7 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -13167,7 +13166,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -13181,7 +13180,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -13195,7 +13194,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -13209,7 +13208,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -13220,7 +13219,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -13229,7 +13228,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -13243,7 +13242,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -13257,7 +13256,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -13271,7 +13270,7 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>15</v>
@@ -13282,7 +13281,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -13291,7 +13290,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>15</v>
@@ -13311,13 +13310,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13325,27 +13324,27 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13359,7 +13358,7 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -13373,13 +13372,13 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13387,7 +13386,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -13401,18 +13400,18 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
@@ -13421,7 +13420,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>15</v>
@@ -13432,7 +13431,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
@@ -13441,7 +13440,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
@@ -13455,7 +13454,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>15</v>
@@ -13466,7 +13465,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
@@ -13475,7 +13474,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -13489,13 +13488,13 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13503,7 +13502,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
@@ -13517,13 +13516,13 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -13531,7 +13530,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
@@ -13554,8 +13553,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13599,13 +13598,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>294</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13619,13 +13618,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -13633,27 +13632,27 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>298</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -13667,7 +13666,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -13681,18 +13680,18 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -13701,7 +13700,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -13712,7 +13711,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -13721,7 +13720,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -13732,7 +13731,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -13741,7 +13740,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -13755,7 +13754,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>15</v>
@@ -13766,7 +13765,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -13775,7 +13774,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -13789,7 +13788,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -13803,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -13817,13 +13816,13 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13831,18 +13830,18 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -13851,13 +13850,13 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13865,18 +13864,18 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -13885,7 +13884,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
@@ -13896,7 +13895,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -13905,7 +13904,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -13919,18 +13918,18 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -13939,7 +13938,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>15</v>
@@ -13950,7 +13949,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -13959,7 +13958,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -13970,7 +13969,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -13979,7 +13978,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -13993,13 +13992,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
         <v>329</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14013,7 +14012,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -14027,7 +14026,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
@@ -14038,7 +14037,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -14047,7 +14046,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
@@ -14058,7 +14057,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -14067,18 +14066,18 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
         <v>334</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -14087,13 +14086,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
         <v>337</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14107,7 +14106,7 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>15</v>
@@ -14118,7 +14117,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -14127,7 +14126,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -14155,7 +14154,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
@@ -14166,7 +14165,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -14175,13 +14174,13 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -14189,7 +14188,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -14203,13 +14202,13 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -14217,13 +14216,13 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -14231,18 +14230,18 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -14251,7 +14250,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -14265,13 +14264,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -14279,18 +14278,18 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -14299,13 +14298,13 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
         <v>354</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -14313,7 +14312,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -14327,7 +14326,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -14341,7 +14340,7 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -14355,18 +14354,18 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
         <v>359</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -14375,7 +14374,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>15</v>
@@ -14395,13 +14394,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
         <v>362</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14415,7 +14414,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>15</v>
@@ -14426,7 +14425,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
@@ -14435,13 +14434,13 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -14449,7 +14448,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>15</v>
@@ -14460,7 +14459,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -14469,18 +14468,18 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -14489,7 +14488,7 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
@@ -14503,7 +14502,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
@@ -14514,7 +14513,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -14523,18 +14522,18 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
         <v>373</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
@@ -14543,7 +14542,7 @@
         <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
@@ -14557,13 +14556,13 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -14667,8 +14666,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14712,13 +14711,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>378</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14726,7 +14725,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -14737,10 +14736,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
@@ -14751,7 +14750,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -14760,18 +14759,18 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>383</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -14780,7 +14779,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -14791,7 +14790,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -14800,7 +14799,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -14814,7 +14813,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -14828,13 +14827,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>848</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14842,7 +14841,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -14853,7 +14852,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -14862,7 +14861,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -14876,7 +14875,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -14890,18 +14889,18 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>847</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -14910,13 +14909,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -14924,7 +14923,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
@@ -14935,7 +14934,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -14944,7 +14943,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
@@ -14955,7 +14954,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -14964,13 +14963,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -14978,21 +14977,21 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -15006,7 +15005,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -15020,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -15031,7 +15030,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -15040,18 +15039,18 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -15060,13 +15059,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15074,13 +15073,13 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -15088,18 +15087,18 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -15108,18 +15107,18 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -15128,7 +15127,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -15148,18 +15147,18 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -15168,18 +15167,18 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -15188,18 +15187,18 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -15208,13 +15207,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15222,13 +15221,13 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -15236,18 +15235,18 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -15256,7 +15255,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -15270,13 +15269,13 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -15290,7 +15289,7 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -15304,7 +15303,7 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -15318,18 +15317,18 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -15338,13 +15337,13 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -15352,7 +15351,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -15366,18 +15365,18 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -15386,7 +15385,7 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
@@ -15397,7 +15396,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -15406,7 +15405,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -15420,13 +15419,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15434,7 +15433,7 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
@@ -15445,7 +15444,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -15454,7 +15453,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>15</v>
@@ -15476,8 +15475,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15512,7 +15511,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -15521,7 +15520,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -15535,7 +15534,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -15549,13 +15548,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15569,13 +15568,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15583,7 +15582,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
@@ -15594,7 +15593,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -15603,13 +15602,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15617,18 +15616,18 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>450</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -15637,13 +15636,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15651,7 +15650,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -15665,7 +15664,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -15679,18 +15678,18 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -15699,7 +15698,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -15713,13 +15712,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15727,18 +15726,18 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -15747,13 +15746,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15761,7 +15760,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -15775,13 +15774,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15789,13 +15788,13 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15803,18 +15802,18 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -15823,7 +15822,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -15837,7 +15836,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -15851,7 +15850,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -15865,13 +15864,13 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -15879,18 +15878,18 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -15899,7 +15898,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
@@ -15910,7 +15909,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -15919,7 +15918,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -15933,7 +15932,7 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
@@ -15944,7 +15943,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -15953,13 +15952,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -15967,7 +15966,7 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -15981,13 +15980,13 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15995,13 +15994,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -16009,13 +16008,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16023,13 +16022,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -16037,7 +16036,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
@@ -16057,13 +16056,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -16071,7 +16070,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>15</v>
@@ -16082,7 +16081,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -16091,18 +16090,18 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -16111,13 +16110,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -16125,13 +16124,13 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16139,7 +16138,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -16153,13 +16152,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16167,18 +16166,18 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -16187,13 +16186,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16201,18 +16200,18 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -16221,18 +16220,18 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -16241,7 +16240,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>15</v>
@@ -16261,13 +16260,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16281,18 +16280,18 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -16301,7 +16300,7 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -16315,7 +16314,7 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>15</v>
@@ -16326,7 +16325,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -16335,13 +16334,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -16357,7 +16356,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16393,7 +16392,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -16402,13 +16401,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16422,7 +16421,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -16436,7 +16435,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -16447,21 +16446,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -16470,18 +16469,18 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -16490,18 +16489,18 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -16510,7 +16509,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
@@ -16521,7 +16520,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -16530,7 +16529,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -16544,18 +16543,18 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>522</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -16564,13 +16563,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16578,7 +16577,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
@@ -16589,7 +16588,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -16598,7 +16597,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -16612,7 +16611,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
@@ -16623,7 +16622,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -16632,13 +16631,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16646,7 +16645,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
@@ -16657,7 +16656,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -16666,13 +16665,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16686,7 +16685,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -16700,21 +16699,21 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -16725,7 +16724,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -16734,12 +16733,12 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -16748,7 +16747,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -16762,13 +16761,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16776,7 +16775,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -16790,7 +16789,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -16804,18 +16803,18 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -16824,7 +16823,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
@@ -16835,7 +16834,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -16844,7 +16843,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -16858,7 +16857,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>15</v>
@@ -16869,22 +16868,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -16892,7 +16891,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
@@ -16912,18 +16911,18 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -16932,13 +16931,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -16946,13 +16945,13 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16960,13 +16959,13 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -16974,18 +16973,18 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -16994,18 +16993,18 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -17014,7 +17013,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -17028,7 +17027,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -17039,16 +17038,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10083" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0D8D73-178E-4E7A-B546-CBADB85C50A4}"/>
+  <xr:revisionPtr revIDLastSave="10173" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E95B185-4F00-423A-8FDF-2F5FCA158C09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="2022" sheetId="34" r:id="rId13"/>
     <sheet name="2023" sheetId="37" r:id="rId14"/>
     <sheet name="2024" sheetId="40" r:id="rId15"/>
-    <sheet name="Stats" sheetId="1" r:id="rId16"/>
+    <sheet name="2025" sheetId="41" r:id="rId16"/>
+    <sheet name="Stats" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="860">
   <si>
     <t>ROUND</t>
   </si>
@@ -2030,9 +2031,6 @@
     <t>3-6 7-6(5) 7-5</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>5-7 6-3 6-4</t>
   </si>
   <si>
@@ -2405,9 +2403,6 @@
     <t>MADRID OPEN</t>
   </si>
   <si>
-    <t>QATAR LADIES OPEN</t>
-  </si>
-  <si>
     <t>6-3 4-6 6-0</t>
   </si>
   <si>
@@ -2601,6 +2596,39 @@
   </si>
   <si>
     <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>Tatjana Maria (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(4) 7-5</t>
+  </si>
+  <si>
+    <t>QUEEN'S CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Jodie Burrage (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>Alex Eala (PHILIPPINES)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-2</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>Caroline Dolehide (USA)</t>
   </si>
 </sst>
 </file>
@@ -3117,10 +3145,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3166,15 +3194,18 @@
                 <c:pt idx="14">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$16</c:f>
+              <c:f>Stats!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3220,6 +3251,9 @@
                 <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3255,10 +3289,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3304,15 +3338,18 @@
                 <c:pt idx="14">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$16</c:f>
+              <c:f>Stats!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3357,6 +3394,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,10 +3847,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -3856,15 +3896,18 @@
                 <c:pt idx="14">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$16</c:f>
+              <c:f>Stats!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3909,6 +3952,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5319,13 +5365,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5353,13 +5399,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -5900,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -6283,7 +6329,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -6562,7 +6608,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -6991,8 +7037,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7177,7 +7223,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -7335,7 +7381,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -7344,7 +7390,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -7403,7 +7449,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>660</v>
+        <v>849</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7412,13 +7458,13 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7432,7 +7478,7 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7454,13 +7500,13 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7488,13 +7534,13 @@
         <v>530</v>
       </c>
       <c r="D40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7516,7 +7562,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -7530,7 +7576,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7544,7 +7590,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -7564,7 +7610,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7572,13 +7618,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7592,7 +7638,7 @@
         <v>530</v>
       </c>
       <c r="D48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -7606,7 +7652,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -7620,13 +7666,13 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7634,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -7682,7 +7728,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -7696,7 +7742,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7721,7 +7767,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -7730,13 +7776,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7744,7 +7790,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -7758,18 +7804,18 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -7778,7 +7824,7 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7792,7 +7838,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -7812,7 +7858,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7820,7 +7866,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
@@ -7840,7 +7886,7 @@
         <v>530</v>
       </c>
       <c r="D68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -7854,7 +7900,7 @@
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -7868,7 +7914,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -7896,7 +7942,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -7907,7 +7953,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7916,13 +7962,13 @@
         <v>48</v>
       </c>
       <c r="D74" t="s">
+        <v>697</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
         <v>698</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,7 +7976,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -7944,7 +7990,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
@@ -7955,24 +8001,24 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>15</v>
@@ -7983,16 +8029,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
+        <v>706</v>
+      </c>
+      <c r="D81" t="s">
         <v>707</v>
-      </c>
-      <c r="D81" t="s">
-        <v>708</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -8003,7 +8049,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D82" t="s">
         <v>656</v>
@@ -8012,12 +8058,12 @@
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -8026,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8124,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8087,7 +8133,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -8101,7 +8147,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -8115,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8129,13 +8175,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8149,7 +8195,7 @@
         <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8163,7 +8209,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -8183,7 +8229,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8205,7 +8251,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -8216,7 +8262,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8225,13 +8271,13 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8239,18 +8285,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>723</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -8259,7 +8305,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8270,7 +8316,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -8293,18 +8339,18 @@
         <v>530</v>
       </c>
       <c r="D19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8313,13 +8359,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>728</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>729</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8333,7 +8379,7 @@
         <v>530</v>
       </c>
       <c r="D23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -8347,7 +8393,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -8361,18 +8407,18 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>732</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>733</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -8381,18 +8427,18 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -8401,7 +8447,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -8415,7 +8461,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -8429,7 +8475,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -8449,7 +8495,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -8463,18 +8509,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>741</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>742</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -8494,7 +8540,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -8503,7 +8549,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -8514,7 +8560,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -8523,7 +8569,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -8537,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
@@ -8557,7 +8603,7 @@
         <v>530</v>
       </c>
       <c r="D43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -8582,7 +8628,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -8591,13 +8637,13 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8605,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -8619,7 +8665,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -8633,13 +8679,13 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8647,7 +8693,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -8667,7 +8713,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -8681,7 +8727,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
@@ -8695,7 +8741,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -8709,13 +8755,13 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
+        <v>755</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>756</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8729,12 +8775,12 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -8743,7 +8789,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
@@ -8766,8 +8812,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E48"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8802,7 +8848,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -8811,13 +8857,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,7 +8872,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
@@ -8846,7 +8892,7 @@
         <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -8861,7 +8907,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -8876,7 +8922,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -8891,7 +8937,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -8902,7 +8948,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8925,18 +8971,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>769</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>770</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>785</v>
+        <v>724</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -8945,18 +8991,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -8965,7 +9011,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -8979,13 +9025,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8993,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -9007,13 +9053,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9021,13 +9067,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9046,7 +9092,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -9055,7 +9101,7 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -9069,13 +9115,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9083,13 +9129,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9103,7 +9149,7 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -9117,7 +9163,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -9131,7 +9177,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>15</v>
@@ -9142,13 +9188,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -9159,13 +9205,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9179,7 +9225,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -9193,7 +9239,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>15</v>
@@ -9204,7 +9250,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -9219,7 +9265,7 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9241,7 +9287,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
@@ -9267,7 +9313,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9295,7 +9341,7 @@
         <v>530</v>
       </c>
       <c r="D43" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
@@ -9306,7 +9352,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
@@ -9357,7 +9403,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -9377,7 +9423,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9391,7 +9437,7 @@
         <v>530</v>
       </c>
       <c r="D51" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -9405,18 +9451,18 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -9436,7 +9482,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -9445,7 +9491,7 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>15</v>
@@ -9465,7 +9511,7 @@
         <v>530</v>
       </c>
       <c r="D58" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
@@ -9476,7 +9522,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -9485,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -9499,7 +9545,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -9513,7 +9559,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -9538,7 +9584,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -9547,7 +9593,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
@@ -9558,7 +9604,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -9567,7 +9613,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -9581,13 +9627,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,7 +9641,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -9609,41 +9655,41 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D72" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D73" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
@@ -9654,13 +9700,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -9683,7 +9729,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9718,7 +9764,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -9727,13 +9773,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9747,13 +9793,13 @@
         <v>530</v>
       </c>
       <c r="D4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9761,7 +9807,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -9775,13 +9821,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9789,7 +9835,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -9803,7 +9849,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -9814,7 +9860,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9823,13 +9869,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9837,7 +9883,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -9857,18 +9903,18 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -9877,13 +9923,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,7 +9943,7 @@
         <v>530</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -9908,7 +9954,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9917,7 +9963,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -9931,7 +9977,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -9945,7 +9991,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>15</v>
@@ -9956,7 +10002,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -9965,13 +10011,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9985,13 +10031,13 @@
         <v>530</v>
       </c>
       <c r="D25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9999,13 +10045,13 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10013,13 +10059,13 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10027,7 +10073,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -10047,7 +10093,7 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10055,7 +10101,7 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -10069,18 +10115,18 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -10089,13 +10135,13 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10103,7 +10149,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -10117,13 +10163,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10131,7 +10177,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
@@ -10151,13 +10197,13 @@
         <v>530</v>
       </c>
       <c r="D38" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10176,7 +10222,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -10185,18 +10231,18 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -10205,7 +10251,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
@@ -10216,7 +10262,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -10225,13 +10271,13 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,27 +10286,27 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -10272,10 +10318,10 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="C49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -10287,7 +10333,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="C50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D50" t="s">
         <v>652</v>
@@ -10305,7 +10351,7 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>15</v>
@@ -10321,14 +10367,233 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B7AC3-36F8-4114-880F-83480C09BAC6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" activeCellId="2" sqref="E4 E9:E10 E13:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>819</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>859</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>858</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10346,10 +10611,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -10378,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="e">
-        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10677,57 +10942,78 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
-        <f>SUM(B2:B16)</f>
-        <v>239</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM(C2:C16)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(D2:D16)</f>
-        <v>397</v>
-      </c>
-      <c r="E17" s="2">
-        <f>SUM(E2:E16)</f>
-        <v>219</v>
-      </c>
-      <c r="F17" s="3">
-        <f>(D17-E17)/D17</f>
-        <v>0.44836272040302266</v>
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>691</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <f>AVERAGE(B2:B16)</f>
-        <v>15.933333333333334</v>
+        <f>SUM(B2:B17)</f>
+        <v>244</v>
       </c>
       <c r="C18" s="2">
-        <f>AVERAGE(C2:C16)</f>
-        <v>0.53333333333333333</v>
+        <f>SUM(C2:C17)</f>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
-        <f>AVERAGE(D2:D16)</f>
-        <v>26.466666666666665</v>
+        <f>SUM(D2:D17)</f>
+        <v>402</v>
       </c>
       <c r="E18" s="2">
-        <f>AVERAGE(E2:E16)</f>
-        <v>14.6</v>
+        <f>SUM(E2:E17)</f>
+        <v>223</v>
       </c>
       <c r="F18" s="3">
         <f>(D18-E18)/D18</f>
-        <v>0.44836272040302266</v>
+        <v>0.44527363184079605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B19" s="2">
+        <f>AVERAGE(B2:B17)</f>
+        <v>15.25</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="2">
+        <f>AVERAGE(D2:D17)</f>
+        <v>25.125</v>
+      </c>
+      <c r="E19" s="2">
+        <f>AVERAGE(E2:E17)</f>
+        <v>13.9375</v>
+      </c>
+      <c r="F19" s="3">
+        <f>(D19-E19)/D19</f>
+        <v>0.44527363184079605</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F16">
+  <conditionalFormatting sqref="F2:F17">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -13646,7 +13932,7 @@
         <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
@@ -14827,7 +15113,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -14889,7 +15175,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -15602,7 +15888,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -16520,7 +16806,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -16656,7 +16942,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -16868,7 +17154,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>

--- a/Tennis/WTA Tour/Barbora Krejčíková.xlsx
+++ b/Tennis/WTA Tour/Barbora Krejčíková.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10173" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E95B185-4F00-423A-8FDF-2F5FCA158C09}"/>
+  <xr:revisionPtr revIDLastSave="10221" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4E9B41-EE55-4CE1-886A-E5AA79D17108}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="866">
   <si>
     <t>ROUND</t>
   </si>
@@ -2629,6 +2629,24 @@
   </si>
   <si>
     <t>Caroline Dolehide (USA)</t>
+  </si>
+  <si>
+    <t>1-6 7-6(13) 6-3</t>
+  </si>
+  <si>
+    <t>Taylor Townsend (USA)</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>Victoria Mboko (CANADA)</t>
+  </si>
+  <si>
+    <t>Iva Jovic (USA)</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3270,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3396,7 +3414,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3954,7 +3972,7 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8812,8 +8830,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9729,7 +9747,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C29"/>
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10371,10 +10389,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="2" sqref="E4 E9:E10 E13:E14"/>
+      <selection activeCell="E28" activeCellId="6" sqref="E2 E5 E7 E15 E17 E22 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10577,6 +10595,164 @@
       </c>
       <c r="F15" t="s">
         <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" t="s">
+        <v>865</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" t="s">
+        <v>754</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>668</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>864</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>829</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" t="s">
+        <v>863</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>862</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>858</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>861</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>767</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -10946,20 +11122,20 @@
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10968,7 +11144,7 @@
       </c>
       <c r="B18" s="2">
         <f>SUM(B2:B17)</f>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -10976,15 +11152,15 @@
       </c>
       <c r="D18" s="2">
         <f>SUM(D2:D17)</f>
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E18" s="2">
         <f>SUM(E2:E17)</f>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F18" s="3">
         <f>(D18-E18)/D18</f>
-        <v>0.44527363184079605</v>
+        <v>0.44743276283618583</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10993,7 +11169,7 @@
       </c>
       <c r="B19" s="2">
         <f>AVERAGE(B2:B17)</f>
-        <v>15.25</v>
+        <v>15.4375</v>
       </c>
       <c r="C19" s="2">
         <f>AVERAGE(C2:C17)</f>
@@ -11001,15 +11177,15 @@
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>25.125</v>
+        <v>25.5625</v>
       </c>
       <c r="E19" s="2">
         <f>AVERAGE(E2:E17)</f>
-        <v>13.9375</v>
+        <v>14.125</v>
       </c>
       <c r="F19" s="3">
         <f>(D19-E19)/D19</f>
-        <v>0.44527363184079605</v>
+        <v>0.44743276283618583</v>
       </c>
     </row>
   </sheetData>
